--- a/election_predictor/minwages.xlsx
+++ b/election_predictor/minwages.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26122"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14660" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14680" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="fed" sheetId="1" r:id="rId1"/>
+    <sheet name="0" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="127">
   <si>
     <t>Federal (FLSA)</t>
   </si>
@@ -401,19 +401,13 @@
   </si>
   <si>
     <t>State</t>
-  </si>
-  <si>
-    <t>http://www.dol.gov/whd/state/stateMinWageHis.htm</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-  </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -437,6 +431,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -455,7 +456,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -463,18 +464,59 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="40" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="40" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="27">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -806,8 +848,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O40" workbookViewId="0">
-      <selection activeCell="S57" sqref="S57"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -979,50 +1021,50 @@
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H3" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J3" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" t="s">
-        <v>2</v>
-      </c>
-      <c r="L3" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" t="s">
-        <v>2</v>
-      </c>
-      <c r="N3" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" t="s">
-        <v>2</v>
-      </c>
-      <c r="P3" t="s">
-        <v>2</v>
+      <c r="B3" s="1">
+        <v>3.35</v>
+      </c>
+      <c r="C3" s="1">
+        <v>3.8</v>
+      </c>
+      <c r="D3" s="1">
+        <v>4.25</v>
+      </c>
+      <c r="E3" s="1">
+        <v>4.25</v>
+      </c>
+      <c r="F3" s="1">
+        <v>4.25</v>
+      </c>
+      <c r="G3" s="1">
+        <v>4.25</v>
+      </c>
+      <c r="H3" s="1">
+        <v>4.25</v>
+      </c>
+      <c r="I3" s="1">
+        <v>4.75</v>
+      </c>
+      <c r="J3" s="1">
+        <v>5.15</v>
+      </c>
+      <c r="K3" s="2">
+        <v>5.15</v>
+      </c>
+      <c r="L3" s="2">
+        <v>5.15</v>
+      </c>
+      <c r="M3" s="2">
+        <v>5.15</v>
+      </c>
+      <c r="N3" s="2">
+        <v>5.15</v>
+      </c>
+      <c r="O3" s="2">
+        <v>5.15</v>
+      </c>
+      <c r="P3" s="2">
+        <v>5.15</v>
       </c>
       <c r="Q3" t="s">
         <v>2</v>
@@ -1139,50 +1181,50 @@
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H5" t="s">
-        <v>2</v>
-      </c>
-      <c r="I5" t="s">
-        <v>2</v>
-      </c>
-      <c r="J5" t="s">
-        <v>2</v>
-      </c>
-      <c r="K5" t="s">
-        <v>2</v>
-      </c>
-      <c r="L5" t="s">
-        <v>2</v>
-      </c>
-      <c r="M5" t="s">
-        <v>2</v>
-      </c>
-      <c r="N5" t="s">
-        <v>2</v>
-      </c>
-      <c r="O5" t="s">
-        <v>2</v>
-      </c>
-      <c r="P5" t="s">
-        <v>2</v>
+      <c r="B5" s="1">
+        <v>3.35</v>
+      </c>
+      <c r="C5" s="1">
+        <v>3.8</v>
+      </c>
+      <c r="D5" s="1">
+        <v>4.25</v>
+      </c>
+      <c r="E5" s="1">
+        <v>4.25</v>
+      </c>
+      <c r="F5" s="1">
+        <v>4.25</v>
+      </c>
+      <c r="G5" s="1">
+        <v>4.25</v>
+      </c>
+      <c r="H5" s="1">
+        <v>4.25</v>
+      </c>
+      <c r="I5" s="1">
+        <v>4.75</v>
+      </c>
+      <c r="J5" s="1">
+        <v>5.15</v>
+      </c>
+      <c r="K5" s="2">
+        <v>5.15</v>
+      </c>
+      <c r="L5" s="2">
+        <v>5.15</v>
+      </c>
+      <c r="M5" s="2">
+        <v>5.15</v>
+      </c>
+      <c r="N5" s="2">
+        <v>5.15</v>
+      </c>
+      <c r="O5" s="2">
+        <v>5.15</v>
+      </c>
+      <c r="P5" s="2">
+        <v>5.15</v>
       </c>
       <c r="Q5" t="s">
         <v>2</v>
@@ -1237,32 +1279,32 @@
       <c r="G6">
         <v>4.25</v>
       </c>
-      <c r="H6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J6" t="s">
-        <v>7</v>
-      </c>
-      <c r="K6" t="s">
-        <v>64</v>
-      </c>
-      <c r="L6" t="s">
-        <v>64</v>
-      </c>
-      <c r="M6" t="s">
-        <v>64</v>
-      </c>
-      <c r="N6" t="s">
-        <v>64</v>
-      </c>
-      <c r="O6" t="s">
-        <v>64</v>
-      </c>
-      <c r="P6" t="s">
-        <v>64</v>
+      <c r="H6" s="1">
+        <v>4.25</v>
+      </c>
+      <c r="I6">
+        <v>4.25</v>
+      </c>
+      <c r="J6" s="1">
+        <v>5.15</v>
+      </c>
+      <c r="K6" s="2">
+        <v>5.15</v>
+      </c>
+      <c r="L6" s="2">
+        <v>5.15</v>
+      </c>
+      <c r="M6" s="2">
+        <v>5.15</v>
+      </c>
+      <c r="N6" s="2">
+        <v>5.15</v>
+      </c>
+      <c r="O6" s="2">
+        <v>5.15</v>
+      </c>
+      <c r="P6" s="2">
+        <v>5.15</v>
       </c>
       <c r="Q6" t="s">
         <v>64</v>
@@ -1619,50 +1661,50 @@
       <c r="A11" t="s">
         <v>12</v>
       </c>
-      <c r="B11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" t="s">
-        <v>2</v>
-      </c>
-      <c r="E11" t="s">
-        <v>2</v>
-      </c>
-      <c r="F11" t="s">
-        <v>2</v>
-      </c>
-      <c r="G11" t="s">
-        <v>2</v>
-      </c>
-      <c r="H11" t="s">
-        <v>2</v>
-      </c>
-      <c r="I11" t="s">
-        <v>2</v>
-      </c>
-      <c r="J11" t="s">
-        <v>2</v>
-      </c>
-      <c r="K11" t="s">
-        <v>2</v>
-      </c>
-      <c r="L11" t="s">
-        <v>2</v>
-      </c>
-      <c r="M11" t="s">
-        <v>2</v>
-      </c>
-      <c r="N11" t="s">
-        <v>2</v>
-      </c>
-      <c r="O11" t="s">
-        <v>2</v>
-      </c>
-      <c r="P11" t="s">
-        <v>2</v>
+      <c r="B11" s="1">
+        <v>3.35</v>
+      </c>
+      <c r="C11" s="1">
+        <v>3.8</v>
+      </c>
+      <c r="D11" s="1">
+        <v>4.25</v>
+      </c>
+      <c r="E11" s="1">
+        <v>4.25</v>
+      </c>
+      <c r="F11" s="1">
+        <v>4.25</v>
+      </c>
+      <c r="G11" s="1">
+        <v>4.25</v>
+      </c>
+      <c r="H11" s="1">
+        <v>4.25</v>
+      </c>
+      <c r="I11" s="1">
+        <v>4.75</v>
+      </c>
+      <c r="J11" s="1">
+        <v>5.15</v>
+      </c>
+      <c r="K11" s="2">
+        <v>5.15</v>
+      </c>
+      <c r="L11" s="2">
+        <v>5.15</v>
+      </c>
+      <c r="M11" s="2">
+        <v>5.15</v>
+      </c>
+      <c r="N11" s="2">
+        <v>5.15</v>
+      </c>
+      <c r="O11" s="2">
+        <v>5.15</v>
+      </c>
+      <c r="P11" s="2">
+        <v>5.15</v>
       </c>
       <c r="Q11" t="s">
         <v>2</v>
@@ -1717,32 +1759,32 @@
       <c r="G12">
         <v>3.25</v>
       </c>
-      <c r="H12" t="s">
-        <v>14</v>
-      </c>
-      <c r="I12" t="s">
-        <v>14</v>
-      </c>
-      <c r="J12" t="s">
-        <v>14</v>
-      </c>
-      <c r="K12" t="s">
-        <v>14</v>
-      </c>
-      <c r="L12" t="s">
-        <v>14</v>
-      </c>
-      <c r="M12" t="s">
-        <v>14</v>
-      </c>
-      <c r="N12" t="s">
-        <v>72</v>
-      </c>
-      <c r="O12" t="s">
-        <v>72</v>
-      </c>
-      <c r="P12" t="s">
-        <v>72</v>
+      <c r="H12">
+        <v>3.25</v>
+      </c>
+      <c r="I12">
+        <v>3.25</v>
+      </c>
+      <c r="J12">
+        <v>3.25</v>
+      </c>
+      <c r="K12">
+        <v>3.25</v>
+      </c>
+      <c r="L12">
+        <v>3.25</v>
+      </c>
+      <c r="M12">
+        <v>3.25</v>
+      </c>
+      <c r="N12" s="2">
+        <v>5.15</v>
+      </c>
+      <c r="O12" s="2">
+        <v>5.15</v>
+      </c>
+      <c r="P12" s="2">
+        <v>5.15</v>
       </c>
       <c r="Q12" t="s">
         <v>72</v>
@@ -1957,32 +1999,32 @@
       <c r="G15">
         <v>4.25</v>
       </c>
-      <c r="H15" t="s">
-        <v>6</v>
-      </c>
-      <c r="I15" t="s">
-        <v>18</v>
-      </c>
-      <c r="J15" t="s">
-        <v>7</v>
-      </c>
-      <c r="K15" t="s">
-        <v>64</v>
-      </c>
-      <c r="L15" t="s">
-        <v>64</v>
-      </c>
-      <c r="M15" t="s">
-        <v>64</v>
-      </c>
-      <c r="N15" t="s">
-        <v>64</v>
-      </c>
-      <c r="O15" t="s">
-        <v>64</v>
-      </c>
-      <c r="P15" t="s">
-        <v>73</v>
+      <c r="H15">
+        <v>4.25</v>
+      </c>
+      <c r="I15">
+        <v>4.75</v>
+      </c>
+      <c r="J15" s="1">
+        <v>5.15</v>
+      </c>
+      <c r="K15" s="2">
+        <v>5.15</v>
+      </c>
+      <c r="L15" s="2">
+        <v>5.15</v>
+      </c>
+      <c r="M15" s="2">
+        <v>5.15</v>
+      </c>
+      <c r="N15" s="2">
+        <v>5.15</v>
+      </c>
+      <c r="O15" s="2">
+        <v>5.15</v>
+      </c>
+      <c r="P15">
+        <v>5.5</v>
       </c>
       <c r="Q15" t="s">
         <v>74</v>
@@ -2037,32 +2079,32 @@
       <c r="G16">
         <v>3.35</v>
       </c>
-      <c r="H16" t="s">
-        <v>20</v>
-      </c>
-      <c r="I16" t="s">
-        <v>20</v>
-      </c>
-      <c r="J16" t="s">
-        <v>20</v>
-      </c>
-      <c r="K16" t="s">
-        <v>29</v>
-      </c>
-      <c r="L16" t="s">
-        <v>29</v>
-      </c>
-      <c r="M16" t="s">
-        <v>29</v>
-      </c>
-      <c r="N16" t="s">
-        <v>29</v>
-      </c>
-      <c r="O16" t="s">
-        <v>29</v>
-      </c>
-      <c r="P16" t="s">
-        <v>29</v>
+      <c r="H16">
+        <v>3.35</v>
+      </c>
+      <c r="I16">
+        <v>3.35</v>
+      </c>
+      <c r="J16">
+        <v>3.35</v>
+      </c>
+      <c r="K16" s="2">
+        <v>5.15</v>
+      </c>
+      <c r="L16" s="2">
+        <v>5.15</v>
+      </c>
+      <c r="M16" s="2">
+        <v>5.15</v>
+      </c>
+      <c r="N16" s="2">
+        <v>5.15</v>
+      </c>
+      <c r="O16" s="2">
+        <v>5.15</v>
+      </c>
+      <c r="P16" s="2">
+        <v>5.15</v>
       </c>
       <c r="Q16" t="s">
         <v>29</v>
@@ -2099,8 +2141,8 @@
       <c r="A17" t="s">
         <v>21</v>
       </c>
-      <c r="B17" t="s">
-        <v>2</v>
+      <c r="B17" s="1">
+        <v>3.35</v>
       </c>
       <c r="C17">
         <v>4.25</v>
@@ -2339,50 +2381,50 @@
       <c r="A20" t="s">
         <v>24</v>
       </c>
-      <c r="B20" t="s">
-        <v>2</v>
-      </c>
-      <c r="C20" t="s">
-        <v>2</v>
-      </c>
-      <c r="D20" t="s">
-        <v>2</v>
-      </c>
-      <c r="E20" t="s">
-        <v>2</v>
-      </c>
-      <c r="F20" t="s">
-        <v>2</v>
-      </c>
-      <c r="G20" t="s">
-        <v>2</v>
-      </c>
-      <c r="H20" t="s">
-        <v>2</v>
-      </c>
-      <c r="I20" t="s">
-        <v>2</v>
-      </c>
-      <c r="J20" t="s">
-        <v>2</v>
-      </c>
-      <c r="K20" t="s">
-        <v>2</v>
-      </c>
-      <c r="L20" t="s">
-        <v>2</v>
-      </c>
-      <c r="M20" t="s">
-        <v>2</v>
-      </c>
-      <c r="N20" t="s">
-        <v>2</v>
-      </c>
-      <c r="O20" t="s">
-        <v>2</v>
-      </c>
-      <c r="P20" t="s">
-        <v>2</v>
+      <c r="B20" s="1">
+        <v>3.35</v>
+      </c>
+      <c r="C20" s="1">
+        <v>3.8</v>
+      </c>
+      <c r="D20" s="1">
+        <v>4.25</v>
+      </c>
+      <c r="E20" s="1">
+        <v>4.25</v>
+      </c>
+      <c r="F20" s="1">
+        <v>4.25</v>
+      </c>
+      <c r="G20" s="1">
+        <v>4.25</v>
+      </c>
+      <c r="H20" s="1">
+        <v>4.25</v>
+      </c>
+      <c r="I20" s="2">
+        <v>4.75</v>
+      </c>
+      <c r="J20" s="1">
+        <v>5.15</v>
+      </c>
+      <c r="K20" s="2">
+        <v>5.15</v>
+      </c>
+      <c r="L20" s="2">
+        <v>5.15</v>
+      </c>
+      <c r="M20" s="2">
+        <v>5.15</v>
+      </c>
+      <c r="N20" s="2">
+        <v>5.15</v>
+      </c>
+      <c r="O20" s="2">
+        <v>5.15</v>
+      </c>
+      <c r="P20" s="2">
+        <v>5.15</v>
       </c>
       <c r="Q20" t="s">
         <v>2</v>
@@ -2677,32 +2719,32 @@
       <c r="G24">
         <v>3.35</v>
       </c>
-      <c r="H24" t="s">
-        <v>20</v>
-      </c>
-      <c r="I24" t="s">
-        <v>20</v>
-      </c>
-      <c r="J24" t="s">
-        <v>29</v>
-      </c>
-      <c r="K24" t="s">
-        <v>29</v>
-      </c>
-      <c r="L24" t="s">
-        <v>29</v>
-      </c>
-      <c r="M24" t="s">
-        <v>29</v>
-      </c>
-      <c r="N24" t="s">
-        <v>29</v>
-      </c>
-      <c r="O24" t="s">
-        <v>29</v>
-      </c>
-      <c r="P24" t="s">
-        <v>29</v>
+      <c r="H24">
+        <v>3.35</v>
+      </c>
+      <c r="I24">
+        <v>3.35</v>
+      </c>
+      <c r="J24" s="1">
+        <v>5.15</v>
+      </c>
+      <c r="K24" s="2">
+        <v>5.15</v>
+      </c>
+      <c r="L24" s="2">
+        <v>5.15</v>
+      </c>
+      <c r="M24" s="2">
+        <v>5.15</v>
+      </c>
+      <c r="N24" s="2">
+        <v>5.15</v>
+      </c>
+      <c r="O24" s="2">
+        <v>5.15</v>
+      </c>
+      <c r="P24" s="2">
+        <v>5.15</v>
       </c>
       <c r="Q24" t="s">
         <v>29</v>
@@ -2739,50 +2781,50 @@
       <c r="A25" t="s">
         <v>30</v>
       </c>
-      <c r="B25" t="s">
-        <v>31</v>
-      </c>
-      <c r="C25" t="s">
-        <v>32</v>
-      </c>
-      <c r="D25" t="s">
-        <v>32</v>
-      </c>
-      <c r="E25" t="s">
-        <v>32</v>
-      </c>
-      <c r="F25" t="s">
-        <v>32</v>
-      </c>
-      <c r="G25" t="s">
-        <v>32</v>
-      </c>
-      <c r="H25" t="s">
-        <v>32</v>
-      </c>
-      <c r="I25" t="s">
-        <v>32</v>
-      </c>
-      <c r="J25" t="s">
-        <v>33</v>
-      </c>
-      <c r="K25" t="s">
-        <v>75</v>
-      </c>
-      <c r="L25" t="s">
-        <v>75</v>
-      </c>
-      <c r="M25" t="s">
-        <v>75</v>
-      </c>
-      <c r="N25" t="s">
-        <v>75</v>
-      </c>
-      <c r="O25" t="s">
-        <v>75</v>
-      </c>
-      <c r="P25" t="s">
-        <v>75</v>
+      <c r="B25">
+        <v>3.55</v>
+      </c>
+      <c r="C25">
+        <v>4.25</v>
+      </c>
+      <c r="D25">
+        <v>4.25</v>
+      </c>
+      <c r="E25" s="1">
+        <v>4.25</v>
+      </c>
+      <c r="F25" s="1">
+        <v>4.25</v>
+      </c>
+      <c r="G25">
+        <v>4.25</v>
+      </c>
+      <c r="H25">
+        <v>4.25</v>
+      </c>
+      <c r="I25">
+        <v>4.25</v>
+      </c>
+      <c r="J25" s="1">
+        <v>5.15</v>
+      </c>
+      <c r="K25">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="L25">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="M25">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="N25">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="O25">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="P25">
+        <v>4.9000000000000004</v>
       </c>
       <c r="Q25" t="s">
         <v>75</v>
@@ -2819,50 +2861,50 @@
       <c r="A26" t="s">
         <v>34</v>
       </c>
-      <c r="B26" t="s">
-        <v>2</v>
-      </c>
-      <c r="C26" t="s">
-        <v>2</v>
-      </c>
-      <c r="D26" t="s">
-        <v>2</v>
-      </c>
-      <c r="E26" t="s">
-        <v>2</v>
-      </c>
-      <c r="F26" t="s">
-        <v>2</v>
-      </c>
-      <c r="G26" t="s">
-        <v>2</v>
-      </c>
-      <c r="H26" t="s">
-        <v>2</v>
-      </c>
-      <c r="I26" t="s">
-        <v>2</v>
-      </c>
-      <c r="J26" t="s">
-        <v>2</v>
-      </c>
-      <c r="K26" t="s">
-        <v>2</v>
-      </c>
-      <c r="L26" t="s">
-        <v>2</v>
-      </c>
-      <c r="M26" t="s">
-        <v>2</v>
-      </c>
-      <c r="N26" t="s">
-        <v>2</v>
-      </c>
-      <c r="O26" t="s">
-        <v>2</v>
-      </c>
-      <c r="P26" t="s">
-        <v>2</v>
+      <c r="B26" s="2">
+        <v>3.35</v>
+      </c>
+      <c r="C26" s="2">
+        <v>3.8</v>
+      </c>
+      <c r="D26" s="2">
+        <v>4.25</v>
+      </c>
+      <c r="E26" s="1">
+        <v>4.25</v>
+      </c>
+      <c r="F26" s="1">
+        <v>4.25</v>
+      </c>
+      <c r="G26" s="1">
+        <v>4.25</v>
+      </c>
+      <c r="H26" s="1">
+        <v>4.25</v>
+      </c>
+      <c r="I26" s="2">
+        <v>4.75</v>
+      </c>
+      <c r="J26" s="1">
+        <v>5.15</v>
+      </c>
+      <c r="K26" s="2">
+        <v>5.15</v>
+      </c>
+      <c r="L26" s="2">
+        <v>5.15</v>
+      </c>
+      <c r="M26" s="2">
+        <v>5.15</v>
+      </c>
+      <c r="N26" s="2">
+        <v>5.15</v>
+      </c>
+      <c r="O26" s="2">
+        <v>5.15</v>
+      </c>
+      <c r="P26" s="2">
+        <v>5.15</v>
       </c>
       <c r="Q26" t="s">
         <v>2</v>
@@ -2899,8 +2941,8 @@
       <c r="A27" t="s">
         <v>35</v>
       </c>
-      <c r="B27" t="s">
-        <v>2</v>
+      <c r="B27" s="2">
+        <v>3.35</v>
       </c>
       <c r="C27">
         <v>3.8</v>
@@ -2985,44 +3027,44 @@
       <c r="C28">
         <v>3.8</v>
       </c>
-      <c r="D28" t="s">
-        <v>32</v>
-      </c>
-      <c r="E28" t="s">
-        <v>32</v>
-      </c>
-      <c r="F28" t="s">
-        <v>32</v>
-      </c>
-      <c r="G28" t="s">
-        <v>32</v>
-      </c>
-      <c r="H28" t="s">
-        <v>32</v>
-      </c>
-      <c r="I28" t="s">
-        <v>37</v>
-      </c>
-      <c r="J28" t="s">
-        <v>33</v>
-      </c>
-      <c r="K28" t="s">
-        <v>77</v>
-      </c>
-      <c r="L28" t="s">
-        <v>77</v>
-      </c>
-      <c r="M28" t="s">
-        <v>77</v>
-      </c>
-      <c r="N28" t="s">
-        <v>77</v>
-      </c>
-      <c r="O28" t="s">
-        <v>77</v>
-      </c>
-      <c r="P28" t="s">
-        <v>77</v>
+      <c r="D28">
+        <v>4.25</v>
+      </c>
+      <c r="E28" s="1">
+        <v>4.25</v>
+      </c>
+      <c r="F28" s="1">
+        <v>4.25</v>
+      </c>
+      <c r="G28" s="1">
+        <v>4.25</v>
+      </c>
+      <c r="H28" s="1">
+        <v>4.25</v>
+      </c>
+      <c r="I28">
+        <v>4.75</v>
+      </c>
+      <c r="J28" s="1">
+        <v>5.15</v>
+      </c>
+      <c r="K28">
+        <v>4</v>
+      </c>
+      <c r="L28">
+        <v>4</v>
+      </c>
+      <c r="M28">
+        <v>4</v>
+      </c>
+      <c r="N28">
+        <v>4</v>
+      </c>
+      <c r="O28">
+        <v>4</v>
+      </c>
+      <c r="P28">
+        <v>4</v>
       </c>
       <c r="Q28" t="s">
         <v>77</v>
@@ -3077,32 +3119,32 @@
       <c r="G29">
         <v>4.25</v>
       </c>
-      <c r="H29" t="s">
-        <v>6</v>
-      </c>
-      <c r="I29" t="s">
-        <v>6</v>
-      </c>
-      <c r="J29" t="s">
-        <v>7</v>
-      </c>
-      <c r="K29" t="s">
-        <v>64</v>
-      </c>
-      <c r="L29" t="s">
-        <v>64</v>
-      </c>
-      <c r="M29" t="s">
-        <v>64</v>
-      </c>
-      <c r="N29" t="s">
-        <v>64</v>
-      </c>
-      <c r="O29" t="s">
-        <v>64</v>
-      </c>
-      <c r="P29" t="s">
-        <v>64</v>
+      <c r="H29" s="1">
+        <v>4.25</v>
+      </c>
+      <c r="I29">
+        <v>4.25</v>
+      </c>
+      <c r="J29" s="1">
+        <v>5.15</v>
+      </c>
+      <c r="K29" s="2">
+        <v>5.15</v>
+      </c>
+      <c r="L29" s="2">
+        <v>5.15</v>
+      </c>
+      <c r="M29" s="2">
+        <v>5.15</v>
+      </c>
+      <c r="N29" s="2">
+        <v>5.15</v>
+      </c>
+      <c r="O29" s="2">
+        <v>5.15</v>
+      </c>
+      <c r="P29" s="2">
+        <v>5.15</v>
       </c>
       <c r="Q29" t="s">
         <v>64</v>
@@ -3619,8 +3661,8 @@
       <c r="A36" t="s">
         <v>45</v>
       </c>
-      <c r="B36" t="s">
-        <v>46</v>
+      <c r="B36">
+        <v>2.8</v>
       </c>
       <c r="C36">
         <v>3.4</v>
@@ -3702,47 +3744,47 @@
       <c r="B37">
         <v>2.2999999999999998</v>
       </c>
-      <c r="C37" t="s">
-        <v>48</v>
-      </c>
-      <c r="D37" t="s">
-        <v>32</v>
-      </c>
-      <c r="E37" t="s">
-        <v>32</v>
-      </c>
-      <c r="F37" t="s">
-        <v>32</v>
-      </c>
-      <c r="G37" t="s">
-        <v>32</v>
-      </c>
-      <c r="H37" t="s">
-        <v>32</v>
-      </c>
-      <c r="I37" t="s">
-        <v>32</v>
-      </c>
-      <c r="J37" t="s">
-        <v>32</v>
-      </c>
-      <c r="K37" t="s">
-        <v>79</v>
-      </c>
-      <c r="L37" t="s">
-        <v>79</v>
-      </c>
-      <c r="M37" t="s">
-        <v>79</v>
-      </c>
-      <c r="N37" t="s">
-        <v>79</v>
-      </c>
-      <c r="O37" t="s">
-        <v>79</v>
-      </c>
-      <c r="P37" t="s">
-        <v>79</v>
+      <c r="C37">
+        <v>3.8</v>
+      </c>
+      <c r="D37" s="2">
+        <v>4.25</v>
+      </c>
+      <c r="E37" s="1">
+        <v>4.25</v>
+      </c>
+      <c r="F37" s="1">
+        <v>4.25</v>
+      </c>
+      <c r="G37" s="1">
+        <v>4.25</v>
+      </c>
+      <c r="H37" s="1">
+        <v>4.25</v>
+      </c>
+      <c r="I37" s="1">
+        <v>4.25</v>
+      </c>
+      <c r="J37" s="1">
+        <v>4.25</v>
+      </c>
+      <c r="K37">
+        <v>2.8</v>
+      </c>
+      <c r="L37">
+        <v>2.8</v>
+      </c>
+      <c r="M37">
+        <v>2.8</v>
+      </c>
+      <c r="N37">
+        <v>2.8</v>
+      </c>
+      <c r="O37">
+        <v>2.8</v>
+      </c>
+      <c r="P37">
+        <v>2.8</v>
       </c>
       <c r="Q37" t="s">
         <v>79</v>
@@ -3782,47 +3824,47 @@
       <c r="B38">
         <v>3.35</v>
       </c>
-      <c r="C38" t="s">
-        <v>48</v>
-      </c>
-      <c r="D38" t="s">
-        <v>32</v>
-      </c>
-      <c r="E38" t="s">
-        <v>32</v>
-      </c>
-      <c r="F38" t="s">
-        <v>32</v>
-      </c>
-      <c r="G38" t="s">
-        <v>32</v>
-      </c>
-      <c r="H38" t="s">
-        <v>32</v>
-      </c>
-      <c r="I38" t="s">
-        <v>37</v>
-      </c>
-      <c r="J38" t="s">
-        <v>33</v>
-      </c>
-      <c r="K38" t="s">
-        <v>80</v>
-      </c>
-      <c r="L38" t="s">
-        <v>80</v>
-      </c>
-      <c r="M38" t="s">
-        <v>80</v>
-      </c>
-      <c r="N38" t="s">
-        <v>80</v>
-      </c>
-      <c r="O38" t="s">
-        <v>80</v>
-      </c>
-      <c r="P38" t="s">
-        <v>80</v>
+      <c r="C38">
+        <v>3.8</v>
+      </c>
+      <c r="D38" s="2">
+        <v>4.25</v>
+      </c>
+      <c r="E38" s="1">
+        <v>4.25</v>
+      </c>
+      <c r="F38" s="1">
+        <v>4.25</v>
+      </c>
+      <c r="G38" s="1">
+        <v>4.25</v>
+      </c>
+      <c r="H38" s="1">
+        <v>4.25</v>
+      </c>
+      <c r="I38">
+        <v>4.75</v>
+      </c>
+      <c r="J38" s="1">
+        <v>5.15</v>
+      </c>
+      <c r="K38">
+        <v>2</v>
+      </c>
+      <c r="L38">
+        <v>2</v>
+      </c>
+      <c r="M38">
+        <v>2</v>
+      </c>
+      <c r="N38">
+        <v>2</v>
+      </c>
+      <c r="O38">
+        <v>2</v>
+      </c>
+      <c r="P38">
+        <v>2</v>
       </c>
       <c r="Q38" t="s">
         <v>80</v>
@@ -4099,50 +4141,50 @@
       <c r="A42" t="s">
         <v>53</v>
       </c>
-      <c r="B42" t="s">
-        <v>2</v>
-      </c>
-      <c r="C42" t="s">
-        <v>2</v>
-      </c>
-      <c r="D42" t="s">
-        <v>2</v>
-      </c>
-      <c r="E42" t="s">
-        <v>2</v>
-      </c>
-      <c r="F42" t="s">
-        <v>2</v>
-      </c>
-      <c r="G42" t="s">
-        <v>2</v>
-      </c>
-      <c r="H42" t="s">
-        <v>2</v>
-      </c>
-      <c r="I42" t="s">
-        <v>2</v>
-      </c>
-      <c r="J42" t="s">
-        <v>2</v>
-      </c>
-      <c r="K42" t="s">
-        <v>2</v>
-      </c>
-      <c r="L42" t="s">
-        <v>2</v>
-      </c>
-      <c r="M42" t="s">
-        <v>2</v>
-      </c>
-      <c r="N42" t="s">
-        <v>2</v>
-      </c>
-      <c r="O42" t="s">
-        <v>2</v>
-      </c>
-      <c r="P42" t="s">
-        <v>2</v>
+      <c r="B42" s="2">
+        <v>3.35</v>
+      </c>
+      <c r="C42" s="2">
+        <v>3.8</v>
+      </c>
+      <c r="D42" s="2">
+        <v>4.25</v>
+      </c>
+      <c r="E42" s="1">
+        <v>4.25</v>
+      </c>
+      <c r="F42" s="1">
+        <v>4.25</v>
+      </c>
+      <c r="G42" s="1">
+        <v>4.25</v>
+      </c>
+      <c r="H42" s="1">
+        <v>4.25</v>
+      </c>
+      <c r="I42" s="2">
+        <v>4.75</v>
+      </c>
+      <c r="J42" s="1">
+        <v>5.15</v>
+      </c>
+      <c r="K42" s="2">
+        <v>5.15</v>
+      </c>
+      <c r="L42" s="2">
+        <v>5.15</v>
+      </c>
+      <c r="M42" s="2">
+        <v>5.15</v>
+      </c>
+      <c r="N42" s="2">
+        <v>5.15</v>
+      </c>
+      <c r="O42" s="2">
+        <v>5.15</v>
+      </c>
+      <c r="P42" s="2">
+        <v>5.15</v>
       </c>
       <c r="Q42" t="s">
         <v>2</v>
@@ -4259,50 +4301,50 @@
       <c r="A44" t="s">
         <v>55</v>
       </c>
-      <c r="B44" t="s">
-        <v>2</v>
-      </c>
-      <c r="C44" t="s">
-        <v>2</v>
-      </c>
-      <c r="D44" t="s">
-        <v>2</v>
-      </c>
-      <c r="E44" t="s">
-        <v>2</v>
-      </c>
-      <c r="F44" t="s">
-        <v>2</v>
-      </c>
-      <c r="G44" t="s">
-        <v>2</v>
-      </c>
-      <c r="H44" t="s">
-        <v>2</v>
-      </c>
-      <c r="I44" t="s">
-        <v>2</v>
-      </c>
-      <c r="J44" t="s">
-        <v>2</v>
-      </c>
-      <c r="K44" t="s">
-        <v>2</v>
-      </c>
-      <c r="L44" t="s">
-        <v>2</v>
-      </c>
-      <c r="M44" t="s">
-        <v>2</v>
-      </c>
-      <c r="N44" t="s">
-        <v>2</v>
-      </c>
-      <c r="O44" t="s">
-        <v>2</v>
-      </c>
-      <c r="P44" t="s">
-        <v>2</v>
+      <c r="B44" s="2">
+        <v>3.35</v>
+      </c>
+      <c r="C44" s="2">
+        <v>3.8</v>
+      </c>
+      <c r="D44">
+        <v>4.25</v>
+      </c>
+      <c r="E44" s="1">
+        <v>4.25</v>
+      </c>
+      <c r="F44" s="1">
+        <v>4.25</v>
+      </c>
+      <c r="G44" s="1">
+        <v>4.25</v>
+      </c>
+      <c r="H44" s="1">
+        <v>4.25</v>
+      </c>
+      <c r="I44" s="2">
+        <v>4.75</v>
+      </c>
+      <c r="J44" s="1">
+        <v>5.15</v>
+      </c>
+      <c r="K44" s="2">
+        <v>5.15</v>
+      </c>
+      <c r="L44" s="2">
+        <v>5.15</v>
+      </c>
+      <c r="M44" s="2">
+        <v>5.15</v>
+      </c>
+      <c r="N44" s="2">
+        <v>5.15</v>
+      </c>
+      <c r="O44" s="2">
+        <v>5.15</v>
+      </c>
+      <c r="P44" s="2">
+        <v>5.15</v>
       </c>
       <c r="Q44" t="s">
         <v>2</v>
@@ -4419,8 +4461,8 @@
       <c r="A46" t="s">
         <v>57</v>
       </c>
-      <c r="B46" t="s">
-        <v>58</v>
+      <c r="B46">
+        <v>2.5</v>
       </c>
       <c r="C46">
         <v>3.8</v>
@@ -4517,32 +4559,32 @@
       <c r="G47">
         <v>4.25</v>
       </c>
-      <c r="H47" t="s">
-        <v>60</v>
-      </c>
-      <c r="I47" t="s">
-        <v>61</v>
-      </c>
-      <c r="J47" t="s">
-        <v>62</v>
-      </c>
-      <c r="K47" t="s">
-        <v>82</v>
-      </c>
-      <c r="L47" t="s">
-        <v>82</v>
-      </c>
-      <c r="M47" t="s">
-        <v>83</v>
-      </c>
-      <c r="N47" t="s">
-        <v>83</v>
-      </c>
-      <c r="O47" t="s">
-        <v>83</v>
-      </c>
-      <c r="P47" t="s">
-        <v>84</v>
+      <c r="H47">
+        <v>4.75</v>
+      </c>
+      <c r="I47">
+        <v>5</v>
+      </c>
+      <c r="J47">
+        <v>5.25</v>
+      </c>
+      <c r="K47">
+        <v>5.75</v>
+      </c>
+      <c r="L47">
+        <v>5.75</v>
+      </c>
+      <c r="M47">
+        <v>6.25</v>
+      </c>
+      <c r="N47">
+        <v>6.25</v>
+      </c>
+      <c r="O47">
+        <v>6.25</v>
+      </c>
+      <c r="P47">
+        <v>6.75</v>
       </c>
       <c r="Q47" t="s">
         <v>85</v>
@@ -4597,32 +4639,32 @@
       <c r="G48">
         <v>4.25</v>
       </c>
-      <c r="H48" t="s">
-        <v>6</v>
-      </c>
-      <c r="I48" t="s">
-        <v>18</v>
-      </c>
-      <c r="J48" t="s">
-        <v>64</v>
-      </c>
-      <c r="K48" t="s">
-        <v>64</v>
-      </c>
-      <c r="L48" t="s">
-        <v>64</v>
-      </c>
-      <c r="M48" t="s">
-        <v>64</v>
-      </c>
-      <c r="N48" t="s">
-        <v>64</v>
-      </c>
-      <c r="O48" t="s">
-        <v>64</v>
-      </c>
-      <c r="P48" t="s">
-        <v>64</v>
+      <c r="H48" s="1">
+        <v>4.25</v>
+      </c>
+      <c r="I48">
+        <v>4.75</v>
+      </c>
+      <c r="J48" s="1">
+        <v>5.15</v>
+      </c>
+      <c r="K48" s="2">
+        <v>5.15</v>
+      </c>
+      <c r="L48" s="2">
+        <v>5.15</v>
+      </c>
+      <c r="M48" s="2">
+        <v>5.15</v>
+      </c>
+      <c r="N48" s="2">
+        <v>5.15</v>
+      </c>
+      <c r="O48" s="2">
+        <v>5.15</v>
+      </c>
+      <c r="P48" s="2">
+        <v>5.15</v>
       </c>
       <c r="Q48" t="s">
         <v>64</v>
@@ -4757,32 +4799,32 @@
       <c r="G50">
         <v>4.25</v>
       </c>
-      <c r="H50" t="s">
-        <v>67</v>
-      </c>
-      <c r="I50" t="s">
-        <v>67</v>
-      </c>
-      <c r="J50" t="s">
-        <v>68</v>
-      </c>
-      <c r="K50" t="s">
-        <v>72</v>
-      </c>
-      <c r="L50" t="s">
-        <v>72</v>
-      </c>
-      <c r="M50" t="s">
-        <v>72</v>
-      </c>
-      <c r="N50" t="s">
-        <v>72</v>
-      </c>
-      <c r="O50" t="s">
-        <v>72</v>
-      </c>
-      <c r="P50" t="s">
-        <v>72</v>
+      <c r="H50" s="1">
+        <v>4.25</v>
+      </c>
+      <c r="I50">
+        <v>4.25</v>
+      </c>
+      <c r="J50">
+        <v>4.75</v>
+      </c>
+      <c r="K50" s="2">
+        <v>5.15</v>
+      </c>
+      <c r="L50" s="2">
+        <v>5.15</v>
+      </c>
+      <c r="M50" s="2">
+        <v>5.15</v>
+      </c>
+      <c r="N50" s="2">
+        <v>5.15</v>
+      </c>
+      <c r="O50" s="2">
+        <v>5.15</v>
+      </c>
+      <c r="P50" s="2">
+        <v>5.15</v>
       </c>
       <c r="Q50" t="s">
         <v>72</v>
@@ -4988,15 +5030,4172 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:Z52"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:26">
       <c r="A1" t="s">
-        <v>127</v>
+        <v>126</v>
+      </c>
+      <c r="B1">
+        <v>1990</v>
+      </c>
+      <c r="C1">
+        <v>1991</v>
+      </c>
+      <c r="D1">
+        <v>1992</v>
+      </c>
+      <c r="E1">
+        <v>1993</v>
+      </c>
+      <c r="F1">
+        <v>1994</v>
+      </c>
+      <c r="G1">
+        <v>1995</v>
+      </c>
+      <c r="H1">
+        <v>1996</v>
+      </c>
+      <c r="I1">
+        <v>1997</v>
+      </c>
+      <c r="J1">
+        <v>1998</v>
+      </c>
+      <c r="K1">
+        <v>1999</v>
+      </c>
+      <c r="L1">
+        <v>2000</v>
+      </c>
+      <c r="M1">
+        <v>2001</v>
+      </c>
+      <c r="N1">
+        <v>2002</v>
+      </c>
+      <c r="O1">
+        <v>2003</v>
+      </c>
+      <c r="P1">
+        <v>2004</v>
+      </c>
+      <c r="Q1">
+        <v>2005</v>
+      </c>
+      <c r="R1">
+        <v>2006</v>
+      </c>
+      <c r="S1">
+        <v>2007</v>
+      </c>
+      <c r="T1">
+        <v>2008</v>
+      </c>
+      <c r="U1">
+        <v>2009</v>
+      </c>
+      <c r="V1">
+        <v>2010</v>
+      </c>
+      <c r="W1">
+        <v>2011</v>
+      </c>
+      <c r="X1">
+        <v>2012</v>
+      </c>
+      <c r="Y1">
+        <v>2013</v>
+      </c>
+      <c r="Z1">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>3.35</v>
+      </c>
+      <c r="C2" s="1">
+        <v>3.8</v>
+      </c>
+      <c r="D2" s="1">
+        <v>4.25</v>
+      </c>
+      <c r="E2" s="1">
+        <v>4.25</v>
+      </c>
+      <c r="F2" s="1">
+        <v>4.25</v>
+      </c>
+      <c r="G2" s="1">
+        <v>4.25</v>
+      </c>
+      <c r="H2" s="1">
+        <v>4.25</v>
+      </c>
+      <c r="I2" s="1">
+        <v>4.75</v>
+      </c>
+      <c r="J2" s="1">
+        <v>5.15</v>
+      </c>
+      <c r="K2" s="1">
+        <v>5.15</v>
+      </c>
+      <c r="L2" s="1">
+        <v>5.15</v>
+      </c>
+      <c r="M2" s="1">
+        <v>5.15</v>
+      </c>
+      <c r="N2" s="1">
+        <v>5.15</v>
+      </c>
+      <c r="O2" s="1">
+        <v>5.15</v>
+      </c>
+      <c r="P2" s="1">
+        <v>5.15</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>5.15</v>
+      </c>
+      <c r="R2">
+        <v>5.15</v>
+      </c>
+      <c r="S2">
+        <v>5.15</v>
+      </c>
+      <c r="T2">
+        <v>5.85</v>
+      </c>
+      <c r="U2">
+        <v>6.55</v>
+      </c>
+      <c r="V2">
+        <v>7.25</v>
+      </c>
+      <c r="W2">
+        <v>7.25</v>
+      </c>
+      <c r="X2">
+        <v>7.25</v>
+      </c>
+      <c r="Y2">
+        <v>7.25</v>
+      </c>
+      <c r="Z2">
+        <v>7.25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L3" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N3" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" t="s">
+        <v>2</v>
+      </c>
+      <c r="P3" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>2</v>
+      </c>
+      <c r="R3" t="s">
+        <v>2</v>
+      </c>
+      <c r="S3" t="s">
+        <v>2</v>
+      </c>
+      <c r="T3" t="s">
+        <v>2</v>
+      </c>
+      <c r="U3" t="s">
+        <v>2</v>
+      </c>
+      <c r="V3" t="s">
+        <v>2</v>
+      </c>
+      <c r="W3" t="s">
+        <v>2</v>
+      </c>
+      <c r="X3" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>3.85</v>
+      </c>
+      <c r="C4">
+        <v>4.3</v>
+      </c>
+      <c r="D4">
+        <v>4.75</v>
+      </c>
+      <c r="E4">
+        <v>4.75</v>
+      </c>
+      <c r="F4">
+        <v>4.75</v>
+      </c>
+      <c r="G4">
+        <v>4.75</v>
+      </c>
+      <c r="H4">
+        <v>4.75</v>
+      </c>
+      <c r="I4">
+        <v>5.25</v>
+      </c>
+      <c r="J4">
+        <v>5.65</v>
+      </c>
+      <c r="K4">
+        <v>5.65</v>
+      </c>
+      <c r="L4">
+        <v>5.65</v>
+      </c>
+      <c r="M4">
+        <v>5.65</v>
+      </c>
+      <c r="N4">
+        <v>5.65</v>
+      </c>
+      <c r="O4">
+        <v>7.15</v>
+      </c>
+      <c r="P4">
+        <v>7.15</v>
+      </c>
+      <c r="Q4">
+        <v>7.15</v>
+      </c>
+      <c r="R4">
+        <v>7.15</v>
+      </c>
+      <c r="S4">
+        <v>7.15</v>
+      </c>
+      <c r="T4">
+        <v>7.15</v>
+      </c>
+      <c r="U4">
+        <v>7.15</v>
+      </c>
+      <c r="V4">
+        <v>7.75</v>
+      </c>
+      <c r="W4">
+        <v>7.75</v>
+      </c>
+      <c r="X4">
+        <v>7.75</v>
+      </c>
+      <c r="Y4">
+        <v>7.75</v>
+      </c>
+      <c r="Z4">
+        <v>7.75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I5" t="s">
+        <v>2</v>
+      </c>
+      <c r="J5" t="s">
+        <v>2</v>
+      </c>
+      <c r="K5" t="s">
+        <v>2</v>
+      </c>
+      <c r="L5" t="s">
+        <v>2</v>
+      </c>
+      <c r="M5" t="s">
+        <v>2</v>
+      </c>
+      <c r="N5" t="s">
+        <v>2</v>
+      </c>
+      <c r="O5" t="s">
+        <v>2</v>
+      </c>
+      <c r="P5" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>2</v>
+      </c>
+      <c r="R5" t="s">
+        <v>2</v>
+      </c>
+      <c r="S5">
+        <v>6.75</v>
+      </c>
+      <c r="T5">
+        <v>6.9</v>
+      </c>
+      <c r="U5">
+        <v>7.25</v>
+      </c>
+      <c r="V5">
+        <v>7.25</v>
+      </c>
+      <c r="W5">
+        <v>7.35</v>
+      </c>
+      <c r="X5">
+        <v>7.65</v>
+      </c>
+      <c r="Y5">
+        <v>7.8</v>
+      </c>
+      <c r="Z5">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>3.25</v>
+      </c>
+      <c r="C6">
+        <v>3.35</v>
+      </c>
+      <c r="D6">
+        <v>3.65</v>
+      </c>
+      <c r="E6">
+        <v>3.65</v>
+      </c>
+      <c r="F6">
+        <v>4.25</v>
+      </c>
+      <c r="G6">
+        <v>4.25</v>
+      </c>
+      <c r="H6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K6" t="s">
+        <v>64</v>
+      </c>
+      <c r="L6" t="s">
+        <v>64</v>
+      </c>
+      <c r="M6" t="s">
+        <v>64</v>
+      </c>
+      <c r="N6" t="s">
+        <v>64</v>
+      </c>
+      <c r="O6" t="s">
+        <v>64</v>
+      </c>
+      <c r="P6" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>64</v>
+      </c>
+      <c r="R6" t="s">
+        <v>71</v>
+      </c>
+      <c r="S6" t="s">
+        <v>86</v>
+      </c>
+      <c r="T6" t="s">
+        <v>87</v>
+      </c>
+      <c r="U6" t="s">
+        <v>87</v>
+      </c>
+      <c r="V6" t="s">
+        <v>86</v>
+      </c>
+      <c r="W6" t="s">
+        <v>86</v>
+      </c>
+      <c r="X6" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>3.35</v>
+      </c>
+      <c r="C7">
+        <v>4.25</v>
+      </c>
+      <c r="D7">
+        <v>4.25</v>
+      </c>
+      <c r="E7">
+        <v>4.25</v>
+      </c>
+      <c r="F7">
+        <v>4.25</v>
+      </c>
+      <c r="G7">
+        <v>4.25</v>
+      </c>
+      <c r="H7">
+        <v>4.25</v>
+      </c>
+      <c r="I7">
+        <v>4.75</v>
+      </c>
+      <c r="J7">
+        <v>5.15</v>
+      </c>
+      <c r="K7">
+        <v>5.75</v>
+      </c>
+      <c r="L7">
+        <v>5.75</v>
+      </c>
+      <c r="M7">
+        <v>6.25</v>
+      </c>
+      <c r="N7">
+        <v>6.75</v>
+      </c>
+      <c r="O7">
+        <v>6.75</v>
+      </c>
+      <c r="P7">
+        <v>6.75</v>
+      </c>
+      <c r="Q7">
+        <v>6.75</v>
+      </c>
+      <c r="R7">
+        <v>6.75</v>
+      </c>
+      <c r="S7">
+        <v>7.5</v>
+      </c>
+      <c r="T7">
+        <v>8</v>
+      </c>
+      <c r="U7">
+        <v>8</v>
+      </c>
+      <c r="V7">
+        <v>8</v>
+      </c>
+      <c r="W7">
+        <v>8</v>
+      </c>
+      <c r="X7">
+        <v>8</v>
+      </c>
+      <c r="Y7">
+        <v>8</v>
+      </c>
+      <c r="Z7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>3</v>
+      </c>
+      <c r="G8">
+        <v>3</v>
+      </c>
+      <c r="H8">
+        <v>3</v>
+      </c>
+      <c r="I8">
+        <v>4.75</v>
+      </c>
+      <c r="J8">
+        <v>5.15</v>
+      </c>
+      <c r="K8">
+        <v>5.15</v>
+      </c>
+      <c r="L8">
+        <v>5.15</v>
+      </c>
+      <c r="M8">
+        <v>5.15</v>
+      </c>
+      <c r="N8">
+        <v>5.15</v>
+      </c>
+      <c r="O8">
+        <v>5.15</v>
+      </c>
+      <c r="P8">
+        <v>5.15</v>
+      </c>
+      <c r="Q8">
+        <v>5.15</v>
+      </c>
+      <c r="R8">
+        <v>5.15</v>
+      </c>
+      <c r="S8">
+        <v>6.85</v>
+      </c>
+      <c r="T8">
+        <v>7.02</v>
+      </c>
+      <c r="U8">
+        <v>7.28</v>
+      </c>
+      <c r="V8">
+        <v>7.24</v>
+      </c>
+      <c r="W8">
+        <v>7.36</v>
+      </c>
+      <c r="X8">
+        <v>7.64</v>
+      </c>
+      <c r="Y8">
+        <v>7.78</v>
+      </c>
+      <c r="Z8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>3.75</v>
+      </c>
+      <c r="C9">
+        <v>4.25</v>
+      </c>
+      <c r="D9">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="E9">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="F9">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="G9">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="H9">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="I9">
+        <v>4.7699999999999996</v>
+      </c>
+      <c r="J9">
+        <v>5.18</v>
+      </c>
+      <c r="K9">
+        <v>6.15</v>
+      </c>
+      <c r="L9">
+        <v>6.15</v>
+      </c>
+      <c r="M9">
+        <v>6.4</v>
+      </c>
+      <c r="N9">
+        <v>6.7</v>
+      </c>
+      <c r="O9">
+        <v>6.9</v>
+      </c>
+      <c r="P9">
+        <v>7.1</v>
+      </c>
+      <c r="Q9">
+        <v>7.1</v>
+      </c>
+      <c r="R9">
+        <v>7.4</v>
+      </c>
+      <c r="S9">
+        <v>7.65</v>
+      </c>
+      <c r="T9">
+        <v>7.65</v>
+      </c>
+      <c r="U9">
+        <v>8</v>
+      </c>
+      <c r="V9">
+        <v>8.25</v>
+      </c>
+      <c r="W9">
+        <v>8.25</v>
+      </c>
+      <c r="X9">
+        <v>8.25</v>
+      </c>
+      <c r="Y9">
+        <v>8.25</v>
+      </c>
+      <c r="Z9">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>3.35</v>
+      </c>
+      <c r="C10">
+        <v>3.8</v>
+      </c>
+      <c r="D10">
+        <v>4.25</v>
+      </c>
+      <c r="E10">
+        <v>4.25</v>
+      </c>
+      <c r="F10">
+        <v>4.25</v>
+      </c>
+      <c r="G10">
+        <v>4.25</v>
+      </c>
+      <c r="H10">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="I10">
+        <v>5</v>
+      </c>
+      <c r="J10">
+        <v>5.15</v>
+      </c>
+      <c r="K10">
+        <v>5.65</v>
+      </c>
+      <c r="L10">
+        <v>5.65</v>
+      </c>
+      <c r="M10">
+        <v>6.15</v>
+      </c>
+      <c r="N10">
+        <v>6.15</v>
+      </c>
+      <c r="O10">
+        <v>6.15</v>
+      </c>
+      <c r="P10">
+        <v>6.15</v>
+      </c>
+      <c r="Q10">
+        <v>6.15</v>
+      </c>
+      <c r="R10">
+        <v>6.15</v>
+      </c>
+      <c r="S10">
+        <v>6.65</v>
+      </c>
+      <c r="T10">
+        <v>7.15</v>
+      </c>
+      <c r="U10">
+        <v>7.15</v>
+      </c>
+      <c r="V10">
+        <v>7.25</v>
+      </c>
+      <c r="W10">
+        <v>7.25</v>
+      </c>
+      <c r="X10">
+        <v>7.25</v>
+      </c>
+      <c r="Y10">
+        <v>7.25</v>
+      </c>
+      <c r="Z10">
+        <v>7.75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" t="s">
+        <v>2</v>
+      </c>
+      <c r="F11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H11" t="s">
+        <v>2</v>
+      </c>
+      <c r="I11" t="s">
+        <v>2</v>
+      </c>
+      <c r="J11" t="s">
+        <v>2</v>
+      </c>
+      <c r="K11" t="s">
+        <v>2</v>
+      </c>
+      <c r="L11" t="s">
+        <v>2</v>
+      </c>
+      <c r="M11" t="s">
+        <v>2</v>
+      </c>
+      <c r="N11" t="s">
+        <v>2</v>
+      </c>
+      <c r="O11" t="s">
+        <v>2</v>
+      </c>
+      <c r="P11" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>2</v>
+      </c>
+      <c r="R11">
+        <v>6.4</v>
+      </c>
+      <c r="S11">
+        <v>6.67</v>
+      </c>
+      <c r="T11">
+        <v>6.79</v>
+      </c>
+      <c r="U11">
+        <v>7.21</v>
+      </c>
+      <c r="V11">
+        <v>7.25</v>
+      </c>
+      <c r="W11">
+        <v>7.25</v>
+      </c>
+      <c r="X11">
+        <v>7.67</v>
+      </c>
+      <c r="Y11">
+        <v>7.79</v>
+      </c>
+      <c r="Z11">
+        <v>7.93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12">
+        <v>3.25</v>
+      </c>
+      <c r="C12">
+        <v>3.25</v>
+      </c>
+      <c r="D12">
+        <v>3.25</v>
+      </c>
+      <c r="E12">
+        <v>3.25</v>
+      </c>
+      <c r="F12">
+        <v>3.25</v>
+      </c>
+      <c r="G12">
+        <v>3.25</v>
+      </c>
+      <c r="H12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" t="s">
+        <v>14</v>
+      </c>
+      <c r="J12" t="s">
+        <v>14</v>
+      </c>
+      <c r="K12" t="s">
+        <v>14</v>
+      </c>
+      <c r="L12" t="s">
+        <v>14</v>
+      </c>
+      <c r="M12" t="s">
+        <v>14</v>
+      </c>
+      <c r="N12" t="s">
+        <v>72</v>
+      </c>
+      <c r="O12" t="s">
+        <v>72</v>
+      </c>
+      <c r="P12" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>72</v>
+      </c>
+      <c r="R12" t="s">
+        <v>72</v>
+      </c>
+      <c r="S12" t="s">
+        <v>72</v>
+      </c>
+      <c r="T12" t="s">
+        <v>72</v>
+      </c>
+      <c r="U12" t="s">
+        <v>72</v>
+      </c>
+      <c r="V12" t="s">
+        <v>72</v>
+      </c>
+      <c r="W12" t="s">
+        <v>72</v>
+      </c>
+      <c r="X12" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <v>3.85</v>
+      </c>
+      <c r="C13">
+        <v>3.85</v>
+      </c>
+      <c r="D13">
+        <v>3.85</v>
+      </c>
+      <c r="E13">
+        <v>3.85</v>
+      </c>
+      <c r="F13">
+        <v>5.25</v>
+      </c>
+      <c r="G13">
+        <v>5.25</v>
+      </c>
+      <c r="H13">
+        <v>5.25</v>
+      </c>
+      <c r="I13">
+        <v>5.25</v>
+      </c>
+      <c r="J13">
+        <v>5.25</v>
+      </c>
+      <c r="K13">
+        <v>5.25</v>
+      </c>
+      <c r="L13">
+        <v>5.25</v>
+      </c>
+      <c r="M13">
+        <v>5.25</v>
+      </c>
+      <c r="N13">
+        <v>5.75</v>
+      </c>
+      <c r="O13">
+        <v>6.25</v>
+      </c>
+      <c r="P13">
+        <v>6.25</v>
+      </c>
+      <c r="Q13">
+        <v>6.25</v>
+      </c>
+      <c r="R13">
+        <v>6.75</v>
+      </c>
+      <c r="S13">
+        <v>7.25</v>
+      </c>
+      <c r="T13">
+        <v>7.25</v>
+      </c>
+      <c r="U13">
+        <v>7.25</v>
+      </c>
+      <c r="V13">
+        <v>7.25</v>
+      </c>
+      <c r="W13">
+        <v>7.25</v>
+      </c>
+      <c r="X13">
+        <v>7.25</v>
+      </c>
+      <c r="Y13">
+        <v>7.25</v>
+      </c>
+      <c r="Z13">
+        <v>7.25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C14">
+        <v>3.8</v>
+      </c>
+      <c r="D14">
+        <v>4.25</v>
+      </c>
+      <c r="E14">
+        <v>4.25</v>
+      </c>
+      <c r="F14">
+        <v>4.25</v>
+      </c>
+      <c r="G14">
+        <v>4.25</v>
+      </c>
+      <c r="H14">
+        <v>4.25</v>
+      </c>
+      <c r="I14">
+        <v>4.25</v>
+      </c>
+      <c r="J14">
+        <v>5.15</v>
+      </c>
+      <c r="K14">
+        <v>5.15</v>
+      </c>
+      <c r="L14">
+        <v>5.15</v>
+      </c>
+      <c r="M14">
+        <v>5.15</v>
+      </c>
+      <c r="N14">
+        <v>5.15</v>
+      </c>
+      <c r="O14">
+        <v>5.15</v>
+      </c>
+      <c r="P14">
+        <v>5.15</v>
+      </c>
+      <c r="Q14">
+        <v>5.15</v>
+      </c>
+      <c r="R14">
+        <v>5.15</v>
+      </c>
+      <c r="S14">
+        <v>5.15</v>
+      </c>
+      <c r="T14">
+        <v>5.85</v>
+      </c>
+      <c r="U14">
+        <v>6.55</v>
+      </c>
+      <c r="V14">
+        <v>7.25</v>
+      </c>
+      <c r="W14">
+        <v>7.25</v>
+      </c>
+      <c r="X14">
+        <v>7.25</v>
+      </c>
+      <c r="Y14">
+        <v>7.25</v>
+      </c>
+      <c r="Z14">
+        <v>7.25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C15">
+        <v>3.8</v>
+      </c>
+      <c r="D15">
+        <v>4.25</v>
+      </c>
+      <c r="E15">
+        <v>4.25</v>
+      </c>
+      <c r="F15">
+        <v>4.25</v>
+      </c>
+      <c r="G15">
+        <v>4.25</v>
+      </c>
+      <c r="H15" t="s">
+        <v>6</v>
+      </c>
+      <c r="I15" t="s">
+        <v>18</v>
+      </c>
+      <c r="J15" t="s">
+        <v>7</v>
+      </c>
+      <c r="K15" t="s">
+        <v>64</v>
+      </c>
+      <c r="L15" t="s">
+        <v>64</v>
+      </c>
+      <c r="M15" t="s">
+        <v>64</v>
+      </c>
+      <c r="N15" t="s">
+        <v>64</v>
+      </c>
+      <c r="O15" t="s">
+        <v>64</v>
+      </c>
+      <c r="P15" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>74</v>
+      </c>
+      <c r="R15" t="s">
+        <v>74</v>
+      </c>
+      <c r="S15" t="s">
+        <v>74</v>
+      </c>
+      <c r="T15" t="s">
+        <v>88</v>
+      </c>
+      <c r="U15" t="s">
+        <v>89</v>
+      </c>
+      <c r="V15" t="s">
+        <v>90</v>
+      </c>
+      <c r="W15" t="s">
+        <v>91</v>
+      </c>
+      <c r="X15" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>3.35</v>
+      </c>
+      <c r="D16">
+        <v>3.35</v>
+      </c>
+      <c r="E16">
+        <v>3.35</v>
+      </c>
+      <c r="F16">
+        <v>3.35</v>
+      </c>
+      <c r="G16">
+        <v>3.35</v>
+      </c>
+      <c r="H16" t="s">
+        <v>20</v>
+      </c>
+      <c r="I16" t="s">
+        <v>20</v>
+      </c>
+      <c r="J16" t="s">
+        <v>20</v>
+      </c>
+      <c r="K16" t="s">
+        <v>29</v>
+      </c>
+      <c r="L16" t="s">
+        <v>29</v>
+      </c>
+      <c r="M16" t="s">
+        <v>29</v>
+      </c>
+      <c r="N16" t="s">
+        <v>29</v>
+      </c>
+      <c r="O16" t="s">
+        <v>29</v>
+      </c>
+      <c r="P16" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>29</v>
+      </c>
+      <c r="R16" t="s">
+        <v>29</v>
+      </c>
+      <c r="S16" t="s">
+        <v>29</v>
+      </c>
+      <c r="T16" t="s">
+        <v>92</v>
+      </c>
+      <c r="U16" t="s">
+        <v>93</v>
+      </c>
+      <c r="V16" t="s">
+        <v>94</v>
+      </c>
+      <c r="W16" t="s">
+        <v>94</v>
+      </c>
+      <c r="X16" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <v>4.25</v>
+      </c>
+      <c r="D17">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="E17">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="F17">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="G17">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="H17">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="I17">
+        <v>4.75</v>
+      </c>
+      <c r="J17">
+        <v>5.15</v>
+      </c>
+      <c r="K17">
+        <v>5.15</v>
+      </c>
+      <c r="L17">
+        <v>5.15</v>
+      </c>
+      <c r="M17">
+        <v>5.15</v>
+      </c>
+      <c r="N17">
+        <v>5.15</v>
+      </c>
+      <c r="O17">
+        <v>5.15</v>
+      </c>
+      <c r="P17">
+        <v>5.15</v>
+      </c>
+      <c r="Q17">
+        <v>5.15</v>
+      </c>
+      <c r="R17">
+        <v>5.15</v>
+      </c>
+      <c r="S17">
+        <v>5.15</v>
+      </c>
+      <c r="T17">
+        <v>7.25</v>
+      </c>
+      <c r="U17">
+        <v>7.25</v>
+      </c>
+      <c r="V17">
+        <v>7.25</v>
+      </c>
+      <c r="W17">
+        <v>7.25</v>
+      </c>
+      <c r="X17">
+        <v>7.25</v>
+      </c>
+      <c r="Y17">
+        <v>7.25</v>
+      </c>
+      <c r="Z17">
+        <v>7.25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18">
+        <v>1.6</v>
+      </c>
+      <c r="C18">
+        <v>2.65</v>
+      </c>
+      <c r="D18">
+        <v>2.65</v>
+      </c>
+      <c r="E18">
+        <v>2.65</v>
+      </c>
+      <c r="F18">
+        <v>2.65</v>
+      </c>
+      <c r="G18">
+        <v>2.65</v>
+      </c>
+      <c r="H18">
+        <v>2.65</v>
+      </c>
+      <c r="I18">
+        <v>2.65</v>
+      </c>
+      <c r="J18">
+        <v>2.65</v>
+      </c>
+      <c r="K18">
+        <v>2.65</v>
+      </c>
+      <c r="L18">
+        <v>2.65</v>
+      </c>
+      <c r="M18">
+        <v>2.65</v>
+      </c>
+      <c r="N18">
+        <v>2.65</v>
+      </c>
+      <c r="O18">
+        <v>2.65</v>
+      </c>
+      <c r="P18">
+        <v>2.65</v>
+      </c>
+      <c r="Q18">
+        <v>2.65</v>
+      </c>
+      <c r="R18">
+        <v>2.65</v>
+      </c>
+      <c r="S18">
+        <v>2.65</v>
+      </c>
+      <c r="T18">
+        <v>2.65</v>
+      </c>
+      <c r="U18">
+        <v>2.65</v>
+      </c>
+      <c r="V18">
+        <v>7.25</v>
+      </c>
+      <c r="W18">
+        <v>7.25</v>
+      </c>
+      <c r="X18">
+        <v>7.25</v>
+      </c>
+      <c r="Y18">
+        <v>7.25</v>
+      </c>
+      <c r="Z18">
+        <v>7.25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19">
+        <v>3.35</v>
+      </c>
+      <c r="C19">
+        <v>3.8</v>
+      </c>
+      <c r="D19">
+        <v>4.25</v>
+      </c>
+      <c r="E19">
+        <v>4.25</v>
+      </c>
+      <c r="F19">
+        <v>4.25</v>
+      </c>
+      <c r="G19">
+        <v>4.25</v>
+      </c>
+      <c r="H19">
+        <v>4.25</v>
+      </c>
+      <c r="I19">
+        <v>4.25</v>
+      </c>
+      <c r="J19">
+        <v>4.25</v>
+      </c>
+      <c r="K19">
+        <v>5.15</v>
+      </c>
+      <c r="L19">
+        <v>5.15</v>
+      </c>
+      <c r="M19">
+        <v>5.15</v>
+      </c>
+      <c r="N19">
+        <v>5.15</v>
+      </c>
+      <c r="O19">
+        <v>5.15</v>
+      </c>
+      <c r="P19">
+        <v>5.15</v>
+      </c>
+      <c r="Q19">
+        <v>5.15</v>
+      </c>
+      <c r="R19">
+        <v>5.15</v>
+      </c>
+      <c r="S19">
+        <v>5.15</v>
+      </c>
+      <c r="T19">
+        <v>5.85</v>
+      </c>
+      <c r="U19">
+        <v>6.55</v>
+      </c>
+      <c r="V19">
+        <v>7.25</v>
+      </c>
+      <c r="W19">
+        <v>7.25</v>
+      </c>
+      <c r="X19">
+        <v>7.25</v>
+      </c>
+      <c r="Y19">
+        <v>7.25</v>
+      </c>
+      <c r="Z19">
+        <v>7.25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" t="s">
+        <v>2</v>
+      </c>
+      <c r="F20" t="s">
+        <v>2</v>
+      </c>
+      <c r="G20" t="s">
+        <v>2</v>
+      </c>
+      <c r="H20" t="s">
+        <v>2</v>
+      </c>
+      <c r="I20" t="s">
+        <v>2</v>
+      </c>
+      <c r="J20" t="s">
+        <v>2</v>
+      </c>
+      <c r="K20" t="s">
+        <v>2</v>
+      </c>
+      <c r="L20" t="s">
+        <v>2</v>
+      </c>
+      <c r="M20" t="s">
+        <v>2</v>
+      </c>
+      <c r="N20" t="s">
+        <v>2</v>
+      </c>
+      <c r="O20" t="s">
+        <v>2</v>
+      </c>
+      <c r="P20" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>2</v>
+      </c>
+      <c r="R20" t="s">
+        <v>2</v>
+      </c>
+      <c r="S20" t="s">
+        <v>2</v>
+      </c>
+      <c r="T20" t="s">
+        <v>2</v>
+      </c>
+      <c r="U20" t="s">
+        <v>2</v>
+      </c>
+      <c r="V20" t="s">
+        <v>2</v>
+      </c>
+      <c r="W20" t="s">
+        <v>2</v>
+      </c>
+      <c r="X20" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21">
+        <v>3.65</v>
+      </c>
+      <c r="C21">
+        <v>3.85</v>
+      </c>
+      <c r="D21">
+        <v>4.25</v>
+      </c>
+      <c r="E21">
+        <v>4.25</v>
+      </c>
+      <c r="F21">
+        <v>4.25</v>
+      </c>
+      <c r="G21">
+        <v>4.25</v>
+      </c>
+      <c r="H21">
+        <v>4.25</v>
+      </c>
+      <c r="I21">
+        <v>4.75</v>
+      </c>
+      <c r="J21">
+        <v>5.15</v>
+      </c>
+      <c r="K21">
+        <v>5.15</v>
+      </c>
+      <c r="L21">
+        <v>5.15</v>
+      </c>
+      <c r="M21">
+        <v>5.15</v>
+      </c>
+      <c r="N21">
+        <v>5.75</v>
+      </c>
+      <c r="O21">
+        <v>6.25</v>
+      </c>
+      <c r="P21">
+        <v>6.25</v>
+      </c>
+      <c r="Q21">
+        <v>6.35</v>
+      </c>
+      <c r="R21">
+        <v>6.5</v>
+      </c>
+      <c r="S21">
+        <v>6.75</v>
+      </c>
+      <c r="T21">
+        <v>7</v>
+      </c>
+      <c r="U21">
+        <v>7.25</v>
+      </c>
+      <c r="V21">
+        <v>7.5</v>
+      </c>
+      <c r="W21">
+        <v>7.5</v>
+      </c>
+      <c r="X21">
+        <v>7.5</v>
+      </c>
+      <c r="Y21">
+        <v>7.5</v>
+      </c>
+      <c r="Z21">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22">
+        <v>3.35</v>
+      </c>
+      <c r="C22">
+        <v>3.8</v>
+      </c>
+      <c r="D22">
+        <v>4.25</v>
+      </c>
+      <c r="E22">
+        <v>4.25</v>
+      </c>
+      <c r="F22">
+        <v>4.25</v>
+      </c>
+      <c r="G22">
+        <v>4.25</v>
+      </c>
+      <c r="H22">
+        <v>4.25</v>
+      </c>
+      <c r="I22">
+        <v>4.75</v>
+      </c>
+      <c r="J22">
+        <v>5.15</v>
+      </c>
+      <c r="K22">
+        <v>5.15</v>
+      </c>
+      <c r="L22">
+        <v>5.15</v>
+      </c>
+      <c r="M22">
+        <v>5.15</v>
+      </c>
+      <c r="N22">
+        <v>5.15</v>
+      </c>
+      <c r="O22">
+        <v>5.15</v>
+      </c>
+      <c r="P22">
+        <v>5.15</v>
+      </c>
+      <c r="Q22">
+        <v>5.15</v>
+      </c>
+      <c r="R22">
+        <v>5.15</v>
+      </c>
+      <c r="S22">
+        <v>6.15</v>
+      </c>
+      <c r="T22">
+        <v>6.15</v>
+      </c>
+      <c r="U22">
+        <v>6.55</v>
+      </c>
+      <c r="V22">
+        <v>7.25</v>
+      </c>
+      <c r="W22">
+        <v>7.25</v>
+      </c>
+      <c r="X22">
+        <v>7.25</v>
+      </c>
+      <c r="Y22">
+        <v>7.25</v>
+      </c>
+      <c r="Z22">
+        <v>7.25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23">
+        <v>3.65</v>
+      </c>
+      <c r="C23">
+        <v>3.75</v>
+      </c>
+      <c r="D23">
+        <v>4.25</v>
+      </c>
+      <c r="E23">
+        <v>4.25</v>
+      </c>
+      <c r="F23">
+        <v>4.25</v>
+      </c>
+      <c r="G23">
+        <v>4.25</v>
+      </c>
+      <c r="H23">
+        <v>4.75</v>
+      </c>
+      <c r="I23">
+        <v>5.25</v>
+      </c>
+      <c r="J23">
+        <v>5.25</v>
+      </c>
+      <c r="K23">
+        <v>6</v>
+      </c>
+      <c r="L23">
+        <v>6</v>
+      </c>
+      <c r="M23">
+        <v>6.75</v>
+      </c>
+      <c r="N23">
+        <v>6.75</v>
+      </c>
+      <c r="O23">
+        <v>6.75</v>
+      </c>
+      <c r="P23">
+        <v>6.75</v>
+      </c>
+      <c r="Q23">
+        <v>6.75</v>
+      </c>
+      <c r="R23">
+        <v>6.75</v>
+      </c>
+      <c r="S23">
+        <v>7.5</v>
+      </c>
+      <c r="T23">
+        <v>8</v>
+      </c>
+      <c r="U23">
+        <v>8</v>
+      </c>
+      <c r="V23">
+        <v>8</v>
+      </c>
+      <c r="W23">
+        <v>8</v>
+      </c>
+      <c r="X23">
+        <v>8</v>
+      </c>
+      <c r="Y23">
+        <v>8</v>
+      </c>
+      <c r="Z23">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24">
+        <v>3.35</v>
+      </c>
+      <c r="C24">
+        <v>3.35</v>
+      </c>
+      <c r="D24">
+        <v>3.35</v>
+      </c>
+      <c r="E24">
+        <v>3.35</v>
+      </c>
+      <c r="F24">
+        <v>3.35</v>
+      </c>
+      <c r="G24">
+        <v>3.35</v>
+      </c>
+      <c r="H24" t="s">
+        <v>20</v>
+      </c>
+      <c r="I24" t="s">
+        <v>20</v>
+      </c>
+      <c r="J24" t="s">
+        <v>29</v>
+      </c>
+      <c r="K24" t="s">
+        <v>29</v>
+      </c>
+      <c r="L24" t="s">
+        <v>29</v>
+      </c>
+      <c r="M24" t="s">
+        <v>29</v>
+      </c>
+      <c r="N24" t="s">
+        <v>29</v>
+      </c>
+      <c r="O24" t="s">
+        <v>29</v>
+      </c>
+      <c r="P24" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>29</v>
+      </c>
+      <c r="R24" t="s">
+        <v>29</v>
+      </c>
+      <c r="S24" t="s">
+        <v>95</v>
+      </c>
+      <c r="T24" t="s">
+        <v>96</v>
+      </c>
+      <c r="U24" t="s">
+        <v>97</v>
+      </c>
+      <c r="V24" t="s">
+        <v>97</v>
+      </c>
+      <c r="W24" t="s">
+        <v>97</v>
+      </c>
+      <c r="X24" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26">
+      <c r="A25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" t="s">
+        <v>32</v>
+      </c>
+      <c r="E25" t="s">
+        <v>32</v>
+      </c>
+      <c r="F25" t="s">
+        <v>32</v>
+      </c>
+      <c r="G25" t="s">
+        <v>32</v>
+      </c>
+      <c r="H25" t="s">
+        <v>32</v>
+      </c>
+      <c r="I25" t="s">
+        <v>32</v>
+      </c>
+      <c r="J25" t="s">
+        <v>33</v>
+      </c>
+      <c r="K25" t="s">
+        <v>75</v>
+      </c>
+      <c r="L25" t="s">
+        <v>75</v>
+      </c>
+      <c r="M25" t="s">
+        <v>75</v>
+      </c>
+      <c r="N25" t="s">
+        <v>75</v>
+      </c>
+      <c r="O25" t="s">
+        <v>75</v>
+      </c>
+      <c r="P25" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>75</v>
+      </c>
+      <c r="R25" t="s">
+        <v>76</v>
+      </c>
+      <c r="S25" t="s">
+        <v>98</v>
+      </c>
+      <c r="T25" t="s">
+        <v>98</v>
+      </c>
+      <c r="U25" t="s">
+        <v>98</v>
+      </c>
+      <c r="V25" t="s">
+        <v>98</v>
+      </c>
+      <c r="W25" t="s">
+        <v>98</v>
+      </c>
+      <c r="X25" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26">
+      <c r="A26" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26" t="s">
+        <v>2</v>
+      </c>
+      <c r="E26" t="s">
+        <v>2</v>
+      </c>
+      <c r="F26" t="s">
+        <v>2</v>
+      </c>
+      <c r="G26" t="s">
+        <v>2</v>
+      </c>
+      <c r="H26" t="s">
+        <v>2</v>
+      </c>
+      <c r="I26" t="s">
+        <v>2</v>
+      </c>
+      <c r="J26" t="s">
+        <v>2</v>
+      </c>
+      <c r="K26" t="s">
+        <v>2</v>
+      </c>
+      <c r="L26" t="s">
+        <v>2</v>
+      </c>
+      <c r="M26" t="s">
+        <v>2</v>
+      </c>
+      <c r="N26" t="s">
+        <v>2</v>
+      </c>
+      <c r="O26" t="s">
+        <v>2</v>
+      </c>
+      <c r="P26" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>2</v>
+      </c>
+      <c r="R26" t="s">
+        <v>2</v>
+      </c>
+      <c r="S26" t="s">
+        <v>2</v>
+      </c>
+      <c r="T26" t="s">
+        <v>2</v>
+      </c>
+      <c r="U26" t="s">
+        <v>2</v>
+      </c>
+      <c r="V26" t="s">
+        <v>2</v>
+      </c>
+      <c r="W26" t="s">
+        <v>2</v>
+      </c>
+      <c r="X26" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26">
+      <c r="A27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27">
+        <v>3.8</v>
+      </c>
+      <c r="D27">
+        <v>4.25</v>
+      </c>
+      <c r="E27">
+        <v>4.25</v>
+      </c>
+      <c r="F27">
+        <v>4.25</v>
+      </c>
+      <c r="G27">
+        <v>4.25</v>
+      </c>
+      <c r="H27">
+        <v>4.25</v>
+      </c>
+      <c r="I27">
+        <v>4.75</v>
+      </c>
+      <c r="J27">
+        <v>5.15</v>
+      </c>
+      <c r="K27">
+        <v>5.15</v>
+      </c>
+      <c r="L27">
+        <v>5.15</v>
+      </c>
+      <c r="M27">
+        <v>5.15</v>
+      </c>
+      <c r="N27">
+        <v>5.15</v>
+      </c>
+      <c r="O27">
+        <v>5.15</v>
+      </c>
+      <c r="P27">
+        <v>5.15</v>
+      </c>
+      <c r="Q27">
+        <v>5.15</v>
+      </c>
+      <c r="R27">
+        <v>5.15</v>
+      </c>
+      <c r="S27">
+        <v>6.5</v>
+      </c>
+      <c r="T27">
+        <v>6.65</v>
+      </c>
+      <c r="U27">
+        <v>7.05</v>
+      </c>
+      <c r="V27">
+        <v>7.25</v>
+      </c>
+      <c r="W27">
+        <v>7.25</v>
+      </c>
+      <c r="X27">
+        <v>7.25</v>
+      </c>
+      <c r="Y27">
+        <v>7.35</v>
+      </c>
+      <c r="Z27">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26">
+      <c r="A28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28">
+        <v>3.35</v>
+      </c>
+      <c r="C28">
+        <v>3.8</v>
+      </c>
+      <c r="D28" t="s">
+        <v>32</v>
+      </c>
+      <c r="E28" t="s">
+        <v>32</v>
+      </c>
+      <c r="F28" t="s">
+        <v>32</v>
+      </c>
+      <c r="G28" t="s">
+        <v>32</v>
+      </c>
+      <c r="H28" t="s">
+        <v>32</v>
+      </c>
+      <c r="I28" t="s">
+        <v>37</v>
+      </c>
+      <c r="J28" t="s">
+        <v>33</v>
+      </c>
+      <c r="K28" t="s">
+        <v>77</v>
+      </c>
+      <c r="L28" t="s">
+        <v>77</v>
+      </c>
+      <c r="M28" t="s">
+        <v>77</v>
+      </c>
+      <c r="N28" t="s">
+        <v>77</v>
+      </c>
+      <c r="O28" t="s">
+        <v>77</v>
+      </c>
+      <c r="P28" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>77</v>
+      </c>
+      <c r="R28" t="s">
+        <v>78</v>
+      </c>
+      <c r="S28" t="s">
+        <v>99</v>
+      </c>
+      <c r="T28" t="s">
+        <v>100</v>
+      </c>
+      <c r="U28" t="s">
+        <v>101</v>
+      </c>
+      <c r="V28" t="s">
+        <v>102</v>
+      </c>
+      <c r="W28" t="s">
+        <v>103</v>
+      </c>
+      <c r="X28" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>105</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26">
+      <c r="A29" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29">
+        <v>3.35</v>
+      </c>
+      <c r="C29">
+        <v>3.35</v>
+      </c>
+      <c r="D29">
+        <v>4.25</v>
+      </c>
+      <c r="E29">
+        <v>4.25</v>
+      </c>
+      <c r="F29">
+        <v>4.25</v>
+      </c>
+      <c r="G29">
+        <v>4.25</v>
+      </c>
+      <c r="H29" t="s">
+        <v>6</v>
+      </c>
+      <c r="I29" t="s">
+        <v>6</v>
+      </c>
+      <c r="J29" t="s">
+        <v>7</v>
+      </c>
+      <c r="K29" t="s">
+        <v>64</v>
+      </c>
+      <c r="L29" t="s">
+        <v>64</v>
+      </c>
+      <c r="M29" t="s">
+        <v>64</v>
+      </c>
+      <c r="N29" t="s">
+        <v>64</v>
+      </c>
+      <c r="O29" t="s">
+        <v>64</v>
+      </c>
+      <c r="P29" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>64</v>
+      </c>
+      <c r="R29" t="s">
+        <v>64</v>
+      </c>
+      <c r="S29" t="s">
+        <v>64</v>
+      </c>
+      <c r="T29" t="s">
+        <v>106</v>
+      </c>
+      <c r="U29" t="s">
+        <v>107</v>
+      </c>
+      <c r="V29" t="s">
+        <v>108</v>
+      </c>
+      <c r="W29" t="s">
+        <v>108</v>
+      </c>
+      <c r="X29" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>108</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26">
+      <c r="A30" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30">
+        <v>3.35</v>
+      </c>
+      <c r="C30">
+        <v>3.8</v>
+      </c>
+      <c r="D30">
+        <v>4.25</v>
+      </c>
+      <c r="E30">
+        <v>4.25</v>
+      </c>
+      <c r="F30">
+        <v>4.25</v>
+      </c>
+      <c r="G30">
+        <v>4.25</v>
+      </c>
+      <c r="H30">
+        <v>4.25</v>
+      </c>
+      <c r="I30">
+        <v>4.75</v>
+      </c>
+      <c r="J30">
+        <v>5.15</v>
+      </c>
+      <c r="K30">
+        <v>5.15</v>
+      </c>
+      <c r="L30">
+        <v>5.15</v>
+      </c>
+      <c r="M30">
+        <v>5.15</v>
+      </c>
+      <c r="N30">
+        <v>5.15</v>
+      </c>
+      <c r="O30">
+        <v>5.15</v>
+      </c>
+      <c r="P30">
+        <v>5.15</v>
+      </c>
+      <c r="Q30">
+        <v>5.15</v>
+      </c>
+      <c r="R30">
+        <v>5.15</v>
+      </c>
+      <c r="S30">
+        <v>6.15</v>
+      </c>
+      <c r="T30">
+        <v>6.33</v>
+      </c>
+      <c r="U30" t="s">
+        <v>109</v>
+      </c>
+      <c r="V30" t="s">
+        <v>110</v>
+      </c>
+      <c r="W30" t="s">
+        <v>111</v>
+      </c>
+      <c r="X30" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>111</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26">
+      <c r="A31" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31">
+        <v>3.55</v>
+      </c>
+      <c r="C31">
+        <v>3.85</v>
+      </c>
+      <c r="D31">
+        <v>4.25</v>
+      </c>
+      <c r="E31">
+        <v>4.25</v>
+      </c>
+      <c r="F31">
+        <v>4.25</v>
+      </c>
+      <c r="G31">
+        <v>4.25</v>
+      </c>
+      <c r="H31">
+        <v>4.25</v>
+      </c>
+      <c r="I31">
+        <v>4.75</v>
+      </c>
+      <c r="J31">
+        <v>5.15</v>
+      </c>
+      <c r="K31">
+        <v>5.15</v>
+      </c>
+      <c r="L31">
+        <v>5.15</v>
+      </c>
+      <c r="M31">
+        <v>5.15</v>
+      </c>
+      <c r="N31">
+        <v>5.15</v>
+      </c>
+      <c r="O31">
+        <v>5.15</v>
+      </c>
+      <c r="P31">
+        <v>5.15</v>
+      </c>
+      <c r="Q31">
+        <v>5.15</v>
+      </c>
+      <c r="R31">
+        <v>5.15</v>
+      </c>
+      <c r="S31">
+        <v>5.15</v>
+      </c>
+      <c r="T31">
+        <v>6.5</v>
+      </c>
+      <c r="U31">
+        <v>7.25</v>
+      </c>
+      <c r="V31">
+        <v>7.25</v>
+      </c>
+      <c r="W31">
+        <v>7.25</v>
+      </c>
+      <c r="X31">
+        <v>7.25</v>
+      </c>
+      <c r="Y31">
+        <v>7.25</v>
+      </c>
+      <c r="Z31">
+        <v>7.25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26">
+      <c r="A32" t="s">
+        <v>41</v>
+      </c>
+      <c r="B32">
+        <v>3.35</v>
+      </c>
+      <c r="C32">
+        <v>3.8</v>
+      </c>
+      <c r="D32">
+        <v>4.25</v>
+      </c>
+      <c r="E32">
+        <v>4.25</v>
+      </c>
+      <c r="F32">
+        <v>5.05</v>
+      </c>
+      <c r="G32">
+        <v>5.05</v>
+      </c>
+      <c r="H32">
+        <v>5.05</v>
+      </c>
+      <c r="I32">
+        <v>5.05</v>
+      </c>
+      <c r="J32">
+        <v>5.05</v>
+      </c>
+      <c r="K32">
+        <v>5.15</v>
+      </c>
+      <c r="L32">
+        <v>5.15</v>
+      </c>
+      <c r="M32">
+        <v>5.15</v>
+      </c>
+      <c r="N32">
+        <v>5.15</v>
+      </c>
+      <c r="O32">
+        <v>5.15</v>
+      </c>
+      <c r="P32">
+        <v>5.15</v>
+      </c>
+      <c r="Q32">
+        <v>5.15</v>
+      </c>
+      <c r="R32">
+        <v>6.15</v>
+      </c>
+      <c r="S32">
+        <v>7.15</v>
+      </c>
+      <c r="T32">
+        <v>7.15</v>
+      </c>
+      <c r="U32">
+        <v>7.15</v>
+      </c>
+      <c r="V32">
+        <v>7.25</v>
+      </c>
+      <c r="W32">
+        <v>7.25</v>
+      </c>
+      <c r="X32">
+        <v>7.25</v>
+      </c>
+      <c r="Y32">
+        <v>7.25</v>
+      </c>
+      <c r="Z32">
+        <v>8.25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26">
+      <c r="A33" t="s">
+        <v>42</v>
+      </c>
+      <c r="B33">
+        <v>3.35</v>
+      </c>
+      <c r="C33">
+        <v>3.35</v>
+      </c>
+      <c r="D33">
+        <v>3.35</v>
+      </c>
+      <c r="E33">
+        <v>3.35</v>
+      </c>
+      <c r="F33">
+        <v>4.25</v>
+      </c>
+      <c r="G33">
+        <v>4.25</v>
+      </c>
+      <c r="H33">
+        <v>4.25</v>
+      </c>
+      <c r="I33">
+        <v>4.25</v>
+      </c>
+      <c r="J33">
+        <v>4.25</v>
+      </c>
+      <c r="K33">
+        <v>4.25</v>
+      </c>
+      <c r="L33">
+        <v>4.25</v>
+      </c>
+      <c r="M33">
+        <v>4.25</v>
+      </c>
+      <c r="N33">
+        <v>4.25</v>
+      </c>
+      <c r="O33">
+        <v>4.25</v>
+      </c>
+      <c r="P33">
+        <v>5.15</v>
+      </c>
+      <c r="Q33">
+        <v>5.15</v>
+      </c>
+      <c r="R33">
+        <v>5.15</v>
+      </c>
+      <c r="S33">
+        <v>5.15</v>
+      </c>
+      <c r="T33">
+        <v>6.5</v>
+      </c>
+      <c r="U33">
+        <v>7.5</v>
+      </c>
+      <c r="V33">
+        <v>7.5</v>
+      </c>
+      <c r="W33">
+        <v>7.5</v>
+      </c>
+      <c r="X33">
+        <v>7.5</v>
+      </c>
+      <c r="Y33">
+        <v>7.5</v>
+      </c>
+      <c r="Z33">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26">
+      <c r="A34" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34">
+        <v>3.35</v>
+      </c>
+      <c r="C34">
+        <v>3.8</v>
+      </c>
+      <c r="D34">
+        <v>4.25</v>
+      </c>
+      <c r="E34">
+        <v>4.25</v>
+      </c>
+      <c r="F34">
+        <v>4.25</v>
+      </c>
+      <c r="G34">
+        <v>4.25</v>
+      </c>
+      <c r="H34">
+        <v>4.25</v>
+      </c>
+      <c r="I34">
+        <v>4.25</v>
+      </c>
+      <c r="J34">
+        <v>4.25</v>
+      </c>
+      <c r="K34">
+        <v>4.25</v>
+      </c>
+      <c r="L34">
+        <v>4.25</v>
+      </c>
+      <c r="M34">
+        <v>5.15</v>
+      </c>
+      <c r="N34">
+        <v>5.15</v>
+      </c>
+      <c r="O34">
+        <v>5.15</v>
+      </c>
+      <c r="P34">
+        <v>5.15</v>
+      </c>
+      <c r="Q34">
+        <v>6</v>
+      </c>
+      <c r="R34">
+        <v>6.75</v>
+      </c>
+      <c r="S34">
+        <v>7.15</v>
+      </c>
+      <c r="T34">
+        <v>7.15</v>
+      </c>
+      <c r="U34">
+        <v>7.15</v>
+      </c>
+      <c r="V34">
+        <v>7.25</v>
+      </c>
+      <c r="W34">
+        <v>7.25</v>
+      </c>
+      <c r="X34">
+        <v>7.25</v>
+      </c>
+      <c r="Y34">
+        <v>7.25</v>
+      </c>
+      <c r="Z34">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26">
+      <c r="A35" t="s">
+        <v>44</v>
+      </c>
+      <c r="B35">
+        <v>3.35</v>
+      </c>
+      <c r="C35">
+        <v>3.35</v>
+      </c>
+      <c r="D35">
+        <v>3.8</v>
+      </c>
+      <c r="E35">
+        <v>3.8</v>
+      </c>
+      <c r="F35">
+        <v>4.25</v>
+      </c>
+      <c r="G35">
+        <v>4.25</v>
+      </c>
+      <c r="H35">
+        <v>4.25</v>
+      </c>
+      <c r="I35">
+        <v>4.25</v>
+      </c>
+      <c r="J35">
+        <v>5.15</v>
+      </c>
+      <c r="K35">
+        <v>5.15</v>
+      </c>
+      <c r="L35">
+        <v>5.15</v>
+      </c>
+      <c r="M35">
+        <v>5.15</v>
+      </c>
+      <c r="N35">
+        <v>5.15</v>
+      </c>
+      <c r="O35">
+        <v>5.15</v>
+      </c>
+      <c r="P35">
+        <v>5.15</v>
+      </c>
+      <c r="Q35">
+        <v>5.15</v>
+      </c>
+      <c r="R35">
+        <v>5.15</v>
+      </c>
+      <c r="S35">
+        <v>6.15</v>
+      </c>
+      <c r="T35">
+        <v>6.15</v>
+      </c>
+      <c r="U35">
+        <v>6.55</v>
+      </c>
+      <c r="V35">
+        <v>7.25</v>
+      </c>
+      <c r="W35">
+        <v>7.25</v>
+      </c>
+      <c r="X35">
+        <v>7.25</v>
+      </c>
+      <c r="Y35">
+        <v>7.25</v>
+      </c>
+      <c r="Z35">
+        <v>7.25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26">
+      <c r="A36" t="s">
+        <v>45</v>
+      </c>
+      <c r="B36" t="s">
+        <v>46</v>
+      </c>
+      <c r="C36">
+        <v>3.4</v>
+      </c>
+      <c r="D36">
+        <v>4.25</v>
+      </c>
+      <c r="E36">
+        <v>4.25</v>
+      </c>
+      <c r="F36">
+        <v>4.25</v>
+      </c>
+      <c r="G36">
+        <v>4.25</v>
+      </c>
+      <c r="H36">
+        <v>4.25</v>
+      </c>
+      <c r="I36">
+        <v>4.75</v>
+      </c>
+      <c r="J36">
+        <v>5.15</v>
+      </c>
+      <c r="K36">
+        <v>5.15</v>
+      </c>
+      <c r="L36">
+        <v>5.15</v>
+      </c>
+      <c r="M36">
+        <v>5.15</v>
+      </c>
+      <c r="N36">
+        <v>5.15</v>
+      </c>
+      <c r="O36">
+        <v>5.15</v>
+      </c>
+      <c r="P36">
+        <v>5.15</v>
+      </c>
+      <c r="Q36">
+        <v>5.15</v>
+      </c>
+      <c r="R36">
+        <v>5.15</v>
+      </c>
+      <c r="S36">
+        <v>5.15</v>
+      </c>
+      <c r="T36">
+        <v>5.85</v>
+      </c>
+      <c r="U36">
+        <v>6.55</v>
+      </c>
+      <c r="V36">
+        <v>7.25</v>
+      </c>
+      <c r="W36">
+        <v>7.25</v>
+      </c>
+      <c r="X36">
+        <v>7.25</v>
+      </c>
+      <c r="Y36">
+        <v>7.25</v>
+      </c>
+      <c r="Z36">
+        <v>7.25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26">
+      <c r="A37" t="s">
+        <v>47</v>
+      </c>
+      <c r="B37">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C37" t="s">
+        <v>48</v>
+      </c>
+      <c r="D37" t="s">
+        <v>32</v>
+      </c>
+      <c r="E37" t="s">
+        <v>32</v>
+      </c>
+      <c r="F37" t="s">
+        <v>32</v>
+      </c>
+      <c r="G37" t="s">
+        <v>32</v>
+      </c>
+      <c r="H37" t="s">
+        <v>32</v>
+      </c>
+      <c r="I37" t="s">
+        <v>32</v>
+      </c>
+      <c r="J37" t="s">
+        <v>32</v>
+      </c>
+      <c r="K37" t="s">
+        <v>79</v>
+      </c>
+      <c r="L37" t="s">
+        <v>79</v>
+      </c>
+      <c r="M37" t="s">
+        <v>79</v>
+      </c>
+      <c r="N37" t="s">
+        <v>79</v>
+      </c>
+      <c r="O37" t="s">
+        <v>79</v>
+      </c>
+      <c r="P37" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>79</v>
+      </c>
+      <c r="R37" t="s">
+        <v>79</v>
+      </c>
+      <c r="S37">
+        <v>6.85</v>
+      </c>
+      <c r="T37">
+        <v>7</v>
+      </c>
+      <c r="U37">
+        <v>7.3</v>
+      </c>
+      <c r="V37">
+        <v>7.3</v>
+      </c>
+      <c r="W37">
+        <v>7.4</v>
+      </c>
+      <c r="X37">
+        <v>7.7</v>
+      </c>
+      <c r="Y37">
+        <v>7.85</v>
+      </c>
+      <c r="Z37" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26">
+      <c r="A38" t="s">
+        <v>49</v>
+      </c>
+      <c r="B38">
+        <v>3.35</v>
+      </c>
+      <c r="C38" t="s">
+        <v>48</v>
+      </c>
+      <c r="D38" t="s">
+        <v>32</v>
+      </c>
+      <c r="E38" t="s">
+        <v>32</v>
+      </c>
+      <c r="F38" t="s">
+        <v>32</v>
+      </c>
+      <c r="G38" t="s">
+        <v>32</v>
+      </c>
+      <c r="H38" t="s">
+        <v>32</v>
+      </c>
+      <c r="I38" t="s">
+        <v>37</v>
+      </c>
+      <c r="J38" t="s">
+        <v>33</v>
+      </c>
+      <c r="K38" t="s">
+        <v>80</v>
+      </c>
+      <c r="L38" t="s">
+        <v>80</v>
+      </c>
+      <c r="M38" t="s">
+        <v>80</v>
+      </c>
+      <c r="N38" t="s">
+        <v>80</v>
+      </c>
+      <c r="O38" t="s">
+        <v>80</v>
+      </c>
+      <c r="P38" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>80</v>
+      </c>
+      <c r="R38" t="s">
+        <v>81</v>
+      </c>
+      <c r="S38" t="s">
+        <v>112</v>
+      </c>
+      <c r="T38" t="s">
+        <v>113</v>
+      </c>
+      <c r="U38" t="s">
+        <v>114</v>
+      </c>
+      <c r="V38" t="s">
+        <v>115</v>
+      </c>
+      <c r="W38" t="s">
+        <v>115</v>
+      </c>
+      <c r="X38" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>115</v>
+      </c>
+      <c r="Z38" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26">
+      <c r="A39" t="s">
+        <v>50</v>
+      </c>
+      <c r="B39">
+        <v>3.35</v>
+      </c>
+      <c r="C39">
+        <v>4.75</v>
+      </c>
+      <c r="D39">
+        <v>4.75</v>
+      </c>
+      <c r="E39">
+        <v>4.75</v>
+      </c>
+      <c r="F39">
+        <v>4.75</v>
+      </c>
+      <c r="G39">
+        <v>4.75</v>
+      </c>
+      <c r="H39">
+        <v>4.75</v>
+      </c>
+      <c r="I39">
+        <v>5.5</v>
+      </c>
+      <c r="J39">
+        <v>6</v>
+      </c>
+      <c r="K39">
+        <v>6.5</v>
+      </c>
+      <c r="L39">
+        <v>6.5</v>
+      </c>
+      <c r="M39">
+        <v>6.5</v>
+      </c>
+      <c r="N39">
+        <v>6.5</v>
+      </c>
+      <c r="O39">
+        <v>6.9</v>
+      </c>
+      <c r="P39">
+        <v>7.05</v>
+      </c>
+      <c r="Q39">
+        <v>7.25</v>
+      </c>
+      <c r="R39">
+        <v>7.5</v>
+      </c>
+      <c r="S39">
+        <v>7.8</v>
+      </c>
+      <c r="T39">
+        <v>7.95</v>
+      </c>
+      <c r="U39">
+        <v>8.4</v>
+      </c>
+      <c r="V39">
+        <v>8.4</v>
+      </c>
+      <c r="W39">
+        <v>8.5</v>
+      </c>
+      <c r="X39">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="Y39">
+        <v>8.9499999999999993</v>
+      </c>
+      <c r="Z39">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26">
+      <c r="A40" t="s">
+        <v>51</v>
+      </c>
+      <c r="B40">
+        <v>3.35</v>
+      </c>
+      <c r="C40">
+        <v>3.8</v>
+      </c>
+      <c r="D40">
+        <v>4.25</v>
+      </c>
+      <c r="E40">
+        <v>4.25</v>
+      </c>
+      <c r="F40">
+        <v>4.25</v>
+      </c>
+      <c r="G40">
+        <v>4.25</v>
+      </c>
+      <c r="H40">
+        <v>4.25</v>
+      </c>
+      <c r="I40">
+        <v>4.75</v>
+      </c>
+      <c r="J40">
+        <v>5.15</v>
+      </c>
+      <c r="K40">
+        <v>5.15</v>
+      </c>
+      <c r="L40">
+        <v>5.15</v>
+      </c>
+      <c r="M40">
+        <v>5.15</v>
+      </c>
+      <c r="N40">
+        <v>5.15</v>
+      </c>
+      <c r="O40">
+        <v>5.15</v>
+      </c>
+      <c r="P40">
+        <v>5.15</v>
+      </c>
+      <c r="Q40">
+        <v>5.15</v>
+      </c>
+      <c r="R40">
+        <v>5.15</v>
+      </c>
+      <c r="S40">
+        <v>6.25</v>
+      </c>
+      <c r="T40">
+        <v>7.15</v>
+      </c>
+      <c r="U40">
+        <v>7.15</v>
+      </c>
+      <c r="V40">
+        <v>7.25</v>
+      </c>
+      <c r="W40">
+        <v>7.25</v>
+      </c>
+      <c r="X40">
+        <v>7.25</v>
+      </c>
+      <c r="Y40">
+        <v>7.25</v>
+      </c>
+      <c r="Z40">
+        <v>7.25</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26">
+      <c r="A41" t="s">
+        <v>52</v>
+      </c>
+      <c r="B41">
+        <v>3.65</v>
+      </c>
+      <c r="C41">
+        <v>4.25</v>
+      </c>
+      <c r="D41">
+        <v>4.45</v>
+      </c>
+      <c r="E41">
+        <v>4.45</v>
+      </c>
+      <c r="F41">
+        <v>4.45</v>
+      </c>
+      <c r="G41">
+        <v>4.45</v>
+      </c>
+      <c r="H41">
+        <v>4.45</v>
+      </c>
+      <c r="I41">
+        <v>5.15</v>
+      </c>
+      <c r="J41">
+        <v>5.15</v>
+      </c>
+      <c r="K41">
+        <v>5.65</v>
+      </c>
+      <c r="L41">
+        <v>5.65</v>
+      </c>
+      <c r="M41">
+        <v>6.15</v>
+      </c>
+      <c r="N41">
+        <v>6.15</v>
+      </c>
+      <c r="O41">
+        <v>6.15</v>
+      </c>
+      <c r="P41">
+        <v>6.75</v>
+      </c>
+      <c r="Q41">
+        <v>6.75</v>
+      </c>
+      <c r="R41">
+        <v>6.75</v>
+      </c>
+      <c r="S41">
+        <v>7.4</v>
+      </c>
+      <c r="T41">
+        <v>7.4</v>
+      </c>
+      <c r="U41">
+        <v>7.4</v>
+      </c>
+      <c r="V41">
+        <v>7.4</v>
+      </c>
+      <c r="W41">
+        <v>7.4</v>
+      </c>
+      <c r="X41">
+        <v>7.4</v>
+      </c>
+      <c r="Y41">
+        <v>7.75</v>
+      </c>
+      <c r="Z41">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26">
+      <c r="A42" t="s">
+        <v>53</v>
+      </c>
+      <c r="B42" t="s">
+        <v>2</v>
+      </c>
+      <c r="C42" t="s">
+        <v>2</v>
+      </c>
+      <c r="D42" t="s">
+        <v>2</v>
+      </c>
+      <c r="E42" t="s">
+        <v>2</v>
+      </c>
+      <c r="F42" t="s">
+        <v>2</v>
+      </c>
+      <c r="G42" t="s">
+        <v>2</v>
+      </c>
+      <c r="H42" t="s">
+        <v>2</v>
+      </c>
+      <c r="I42" t="s">
+        <v>2</v>
+      </c>
+      <c r="J42" t="s">
+        <v>2</v>
+      </c>
+      <c r="K42" t="s">
+        <v>2</v>
+      </c>
+      <c r="L42" t="s">
+        <v>2</v>
+      </c>
+      <c r="M42" t="s">
+        <v>2</v>
+      </c>
+      <c r="N42" t="s">
+        <v>2</v>
+      </c>
+      <c r="O42" t="s">
+        <v>2</v>
+      </c>
+      <c r="P42" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>2</v>
+      </c>
+      <c r="R42" t="s">
+        <v>2</v>
+      </c>
+      <c r="S42" t="s">
+        <v>2</v>
+      </c>
+      <c r="T42" t="s">
+        <v>2</v>
+      </c>
+      <c r="U42" t="s">
+        <v>2</v>
+      </c>
+      <c r="V42" t="s">
+        <v>2</v>
+      </c>
+      <c r="W42" t="s">
+        <v>2</v>
+      </c>
+      <c r="X42" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z42" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26">
+      <c r="A43" t="s">
+        <v>54</v>
+      </c>
+      <c r="B43">
+        <v>2.8</v>
+      </c>
+      <c r="C43">
+        <v>3.8</v>
+      </c>
+      <c r="D43">
+        <v>4.25</v>
+      </c>
+      <c r="E43">
+        <v>4.25</v>
+      </c>
+      <c r="F43">
+        <v>4.25</v>
+      </c>
+      <c r="G43">
+        <v>4.25</v>
+      </c>
+      <c r="H43">
+        <v>4.25</v>
+      </c>
+      <c r="I43">
+        <v>4.25</v>
+      </c>
+      <c r="J43">
+        <v>5.15</v>
+      </c>
+      <c r="K43">
+        <v>5.15</v>
+      </c>
+      <c r="L43">
+        <v>5.15</v>
+      </c>
+      <c r="M43">
+        <v>5.15</v>
+      </c>
+      <c r="N43">
+        <v>5.15</v>
+      </c>
+      <c r="O43">
+        <v>5.15</v>
+      </c>
+      <c r="P43">
+        <v>5.15</v>
+      </c>
+      <c r="Q43">
+        <v>5.15</v>
+      </c>
+      <c r="R43">
+        <v>5.15</v>
+      </c>
+      <c r="S43">
+        <v>5.15</v>
+      </c>
+      <c r="T43">
+        <v>5.85</v>
+      </c>
+      <c r="U43">
+        <v>6.55</v>
+      </c>
+      <c r="V43">
+        <v>7.25</v>
+      </c>
+      <c r="W43">
+        <v>7.25</v>
+      </c>
+      <c r="X43">
+        <v>7.25</v>
+      </c>
+      <c r="Y43">
+        <v>7.25</v>
+      </c>
+      <c r="Z43">
+        <v>7.25</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26">
+      <c r="A44" t="s">
+        <v>55</v>
+      </c>
+      <c r="B44" t="s">
+        <v>2</v>
+      </c>
+      <c r="C44" t="s">
+        <v>2</v>
+      </c>
+      <c r="D44" t="s">
+        <v>2</v>
+      </c>
+      <c r="E44" t="s">
+        <v>2</v>
+      </c>
+      <c r="F44" t="s">
+        <v>2</v>
+      </c>
+      <c r="G44" t="s">
+        <v>2</v>
+      </c>
+      <c r="H44" t="s">
+        <v>2</v>
+      </c>
+      <c r="I44" t="s">
+        <v>2</v>
+      </c>
+      <c r="J44" t="s">
+        <v>2</v>
+      </c>
+      <c r="K44" t="s">
+        <v>2</v>
+      </c>
+      <c r="L44" t="s">
+        <v>2</v>
+      </c>
+      <c r="M44" t="s">
+        <v>2</v>
+      </c>
+      <c r="N44" t="s">
+        <v>2</v>
+      </c>
+      <c r="O44" t="s">
+        <v>2</v>
+      </c>
+      <c r="P44" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>2</v>
+      </c>
+      <c r="R44" t="s">
+        <v>2</v>
+      </c>
+      <c r="S44" t="s">
+        <v>2</v>
+      </c>
+      <c r="T44" t="s">
+        <v>2</v>
+      </c>
+      <c r="U44" t="s">
+        <v>2</v>
+      </c>
+      <c r="V44" t="s">
+        <v>2</v>
+      </c>
+      <c r="W44" t="s">
+        <v>2</v>
+      </c>
+      <c r="X44" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z44" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26">
+      <c r="A45" t="s">
+        <v>56</v>
+      </c>
+      <c r="B45">
+        <v>3.35</v>
+      </c>
+      <c r="C45">
+        <v>3.35</v>
+      </c>
+      <c r="D45">
+        <v>3.35</v>
+      </c>
+      <c r="E45">
+        <v>3.35</v>
+      </c>
+      <c r="F45">
+        <v>3.35</v>
+      </c>
+      <c r="G45">
+        <v>3.35</v>
+      </c>
+      <c r="H45">
+        <v>3.35</v>
+      </c>
+      <c r="I45">
+        <v>3.35</v>
+      </c>
+      <c r="J45">
+        <v>3.35</v>
+      </c>
+      <c r="K45">
+        <v>3.35</v>
+      </c>
+      <c r="L45">
+        <v>3.35</v>
+      </c>
+      <c r="M45">
+        <v>3.35</v>
+      </c>
+      <c r="N45">
+        <v>5.15</v>
+      </c>
+      <c r="O45">
+        <v>5.15</v>
+      </c>
+      <c r="P45">
+        <v>5.15</v>
+      </c>
+      <c r="Q45">
+        <v>5.15</v>
+      </c>
+      <c r="R45">
+        <v>5.15</v>
+      </c>
+      <c r="S45">
+        <v>5.15</v>
+      </c>
+      <c r="T45">
+        <v>5.85</v>
+      </c>
+      <c r="U45">
+        <v>6.55</v>
+      </c>
+      <c r="V45">
+        <v>7.25</v>
+      </c>
+      <c r="W45">
+        <v>7.25</v>
+      </c>
+      <c r="X45">
+        <v>7.25</v>
+      </c>
+      <c r="Y45">
+        <v>7.25</v>
+      </c>
+      <c r="Z45">
+        <v>7.25</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26">
+      <c r="A46" t="s">
+        <v>57</v>
+      </c>
+      <c r="B46" t="s">
+        <v>58</v>
+      </c>
+      <c r="C46">
+        <v>3.8</v>
+      </c>
+      <c r="D46">
+        <v>4.25</v>
+      </c>
+      <c r="E46">
+        <v>4.25</v>
+      </c>
+      <c r="F46">
+        <v>4.25</v>
+      </c>
+      <c r="G46">
+        <v>4.25</v>
+      </c>
+      <c r="H46">
+        <v>4.25</v>
+      </c>
+      <c r="I46">
+        <v>4.75</v>
+      </c>
+      <c r="J46">
+        <v>5.15</v>
+      </c>
+      <c r="K46">
+        <v>5.15</v>
+      </c>
+      <c r="L46">
+        <v>5.15</v>
+      </c>
+      <c r="M46">
+        <v>5.15</v>
+      </c>
+      <c r="N46">
+        <v>5.15</v>
+      </c>
+      <c r="O46">
+        <v>5.15</v>
+      </c>
+      <c r="P46">
+        <v>5.15</v>
+      </c>
+      <c r="Q46">
+        <v>5.15</v>
+      </c>
+      <c r="R46">
+        <v>5.15</v>
+      </c>
+      <c r="S46">
+        <v>5.15</v>
+      </c>
+      <c r="T46">
+        <v>5.85</v>
+      </c>
+      <c r="U46">
+        <v>6.55</v>
+      </c>
+      <c r="V46">
+        <v>7.25</v>
+      </c>
+      <c r="W46">
+        <v>7.25</v>
+      </c>
+      <c r="X46">
+        <v>7.25</v>
+      </c>
+      <c r="Y46">
+        <v>7.25</v>
+      </c>
+      <c r="Z46">
+        <v>7.25</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26">
+      <c r="A47" t="s">
+        <v>59</v>
+      </c>
+      <c r="B47">
+        <v>3.55</v>
+      </c>
+      <c r="C47">
+        <v>3.85</v>
+      </c>
+      <c r="D47">
+        <v>4.25</v>
+      </c>
+      <c r="E47">
+        <v>4.25</v>
+      </c>
+      <c r="F47">
+        <v>4.25</v>
+      </c>
+      <c r="G47">
+        <v>4.25</v>
+      </c>
+      <c r="H47" t="s">
+        <v>60</v>
+      </c>
+      <c r="I47" t="s">
+        <v>61</v>
+      </c>
+      <c r="J47" t="s">
+        <v>62</v>
+      </c>
+      <c r="K47" t="s">
+        <v>82</v>
+      </c>
+      <c r="L47" t="s">
+        <v>82</v>
+      </c>
+      <c r="M47" t="s">
+        <v>83</v>
+      </c>
+      <c r="N47" t="s">
+        <v>83</v>
+      </c>
+      <c r="O47" t="s">
+        <v>83</v>
+      </c>
+      <c r="P47" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>85</v>
+      </c>
+      <c r="R47">
+        <v>7.25</v>
+      </c>
+      <c r="S47" t="s">
+        <v>116</v>
+      </c>
+      <c r="T47" t="s">
+        <v>117</v>
+      </c>
+      <c r="U47" t="s">
+        <v>118</v>
+      </c>
+      <c r="V47" t="s">
+        <v>118</v>
+      </c>
+      <c r="W47" t="s">
+        <v>119</v>
+      </c>
+      <c r="X47" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>121</v>
+      </c>
+      <c r="Z47" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="48" spans="1:26">
+      <c r="A48" t="s">
+        <v>63</v>
+      </c>
+      <c r="B48">
+        <v>2.65</v>
+      </c>
+      <c r="C48">
+        <v>2.65</v>
+      </c>
+      <c r="D48">
+        <v>3.65</v>
+      </c>
+      <c r="E48">
+        <v>3.65</v>
+      </c>
+      <c r="F48">
+        <v>4.25</v>
+      </c>
+      <c r="G48">
+        <v>4.25</v>
+      </c>
+      <c r="H48" t="s">
+        <v>6</v>
+      </c>
+      <c r="I48" t="s">
+        <v>18</v>
+      </c>
+      <c r="J48" t="s">
+        <v>64</v>
+      </c>
+      <c r="K48" t="s">
+        <v>64</v>
+      </c>
+      <c r="L48" t="s">
+        <v>64</v>
+      </c>
+      <c r="M48" t="s">
+        <v>64</v>
+      </c>
+      <c r="N48" t="s">
+        <v>64</v>
+      </c>
+      <c r="O48" t="s">
+        <v>64</v>
+      </c>
+      <c r="P48" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>64</v>
+      </c>
+      <c r="R48" t="s">
+        <v>64</v>
+      </c>
+      <c r="S48" t="s">
+        <v>64</v>
+      </c>
+      <c r="T48" t="s">
+        <v>106</v>
+      </c>
+      <c r="U48" t="s">
+        <v>107</v>
+      </c>
+      <c r="V48" t="s">
+        <v>108</v>
+      </c>
+      <c r="W48" t="s">
+        <v>108</v>
+      </c>
+      <c r="X48" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>108</v>
+      </c>
+      <c r="Z48" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="49" spans="1:26">
+      <c r="A49" t="s">
+        <v>65</v>
+      </c>
+      <c r="B49">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C49">
+        <v>4.25</v>
+      </c>
+      <c r="D49">
+        <v>4.25</v>
+      </c>
+      <c r="E49">
+        <v>4.25</v>
+      </c>
+      <c r="F49">
+        <v>4.25</v>
+      </c>
+      <c r="G49">
+        <v>4.25</v>
+      </c>
+      <c r="H49">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="I49">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="J49">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="K49">
+        <v>6.5</v>
+      </c>
+      <c r="L49">
+        <v>6.5</v>
+      </c>
+      <c r="M49">
+        <v>6.72</v>
+      </c>
+      <c r="N49">
+        <v>6.9</v>
+      </c>
+      <c r="O49">
+        <v>7.01</v>
+      </c>
+      <c r="P49">
+        <v>7.16</v>
+      </c>
+      <c r="Q49">
+        <v>7.35</v>
+      </c>
+      <c r="R49">
+        <v>7.63</v>
+      </c>
+      <c r="S49">
+        <v>7.93</v>
+      </c>
+      <c r="T49">
+        <v>8.07</v>
+      </c>
+      <c r="U49">
+        <v>8.5500000000000007</v>
+      </c>
+      <c r="V49">
+        <v>8.5500000000000007</v>
+      </c>
+      <c r="W49">
+        <v>8.67</v>
+      </c>
+      <c r="X49">
+        <v>9.0399999999999991</v>
+      </c>
+      <c r="Y49">
+        <v>9.19</v>
+      </c>
+      <c r="Z49">
+        <v>9.32</v>
+      </c>
+    </row>
+    <row r="50" spans="1:26">
+      <c r="A50" t="s">
+        <v>66</v>
+      </c>
+      <c r="B50">
+        <v>3.35</v>
+      </c>
+      <c r="C50">
+        <v>3.35</v>
+      </c>
+      <c r="D50">
+        <v>3.8</v>
+      </c>
+      <c r="E50">
+        <v>3.8</v>
+      </c>
+      <c r="F50">
+        <v>4.25</v>
+      </c>
+      <c r="G50">
+        <v>4.25</v>
+      </c>
+      <c r="H50" t="s">
+        <v>67</v>
+      </c>
+      <c r="I50" t="s">
+        <v>67</v>
+      </c>
+      <c r="J50" t="s">
+        <v>68</v>
+      </c>
+      <c r="K50" t="s">
+        <v>72</v>
+      </c>
+      <c r="L50" t="s">
+        <v>72</v>
+      </c>
+      <c r="M50" t="s">
+        <v>72</v>
+      </c>
+      <c r="N50" t="s">
+        <v>72</v>
+      </c>
+      <c r="O50" t="s">
+        <v>72</v>
+      </c>
+      <c r="P50" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>72</v>
+      </c>
+      <c r="R50" t="s">
+        <v>72</v>
+      </c>
+      <c r="S50">
+        <v>5.85</v>
+      </c>
+      <c r="T50">
+        <v>6.55</v>
+      </c>
+      <c r="U50">
+        <v>7.25</v>
+      </c>
+      <c r="V50">
+        <v>7.25</v>
+      </c>
+      <c r="W50">
+        <v>7.25</v>
+      </c>
+      <c r="X50">
+        <v>7.25</v>
+      </c>
+      <c r="Y50">
+        <v>7.25</v>
+      </c>
+      <c r="Z50">
+        <v>7.25</v>
+      </c>
+    </row>
+    <row r="51" spans="1:26">
+      <c r="A51" t="s">
+        <v>69</v>
+      </c>
+      <c r="B51">
+        <v>3.35</v>
+      </c>
+      <c r="C51">
+        <v>3.8</v>
+      </c>
+      <c r="D51">
+        <v>3.8</v>
+      </c>
+      <c r="E51">
+        <v>3.8</v>
+      </c>
+      <c r="F51">
+        <v>4.25</v>
+      </c>
+      <c r="G51">
+        <v>4.25</v>
+      </c>
+      <c r="H51">
+        <v>4.25</v>
+      </c>
+      <c r="I51">
+        <v>4.75</v>
+      </c>
+      <c r="J51">
+        <v>5.15</v>
+      </c>
+      <c r="K51">
+        <v>5.15</v>
+      </c>
+      <c r="L51">
+        <v>5.15</v>
+      </c>
+      <c r="M51">
+        <v>5.15</v>
+      </c>
+      <c r="N51">
+        <v>5.15</v>
+      </c>
+      <c r="O51">
+        <v>5.15</v>
+      </c>
+      <c r="P51">
+        <v>5.15</v>
+      </c>
+      <c r="Q51">
+        <v>5.15</v>
+      </c>
+      <c r="R51">
+        <v>5.7</v>
+      </c>
+      <c r="S51">
+        <v>6.5</v>
+      </c>
+      <c r="T51">
+        <v>6.5</v>
+      </c>
+      <c r="U51">
+        <v>6.5</v>
+      </c>
+      <c r="V51">
+        <v>7.25</v>
+      </c>
+      <c r="W51">
+        <v>7.25</v>
+      </c>
+      <c r="X51">
+        <v>7.25</v>
+      </c>
+      <c r="Y51">
+        <v>7.25</v>
+      </c>
+      <c r="Z51">
+        <v>7.25</v>
+      </c>
+    </row>
+    <row r="52" spans="1:26">
+      <c r="A52" t="s">
+        <v>70</v>
+      </c>
+      <c r="B52">
+        <v>1.6</v>
+      </c>
+      <c r="C52">
+        <v>1.6</v>
+      </c>
+      <c r="D52">
+        <v>1.6</v>
+      </c>
+      <c r="E52">
+        <v>1.6</v>
+      </c>
+      <c r="F52">
+        <v>1.6</v>
+      </c>
+      <c r="G52">
+        <v>1.6</v>
+      </c>
+      <c r="H52">
+        <v>1.6</v>
+      </c>
+      <c r="I52">
+        <v>1.6</v>
+      </c>
+      <c r="J52">
+        <v>1.6</v>
+      </c>
+      <c r="K52">
+        <v>1.6</v>
+      </c>
+      <c r="L52">
+        <v>1.6</v>
+      </c>
+      <c r="M52">
+        <v>1.6</v>
+      </c>
+      <c r="N52">
+        <v>5.15</v>
+      </c>
+      <c r="O52">
+        <v>5.15</v>
+      </c>
+      <c r="P52">
+        <v>5.15</v>
+      </c>
+      <c r="Q52">
+        <v>5.15</v>
+      </c>
+      <c r="R52">
+        <v>5.15</v>
+      </c>
+      <c r="S52">
+        <v>5.15</v>
+      </c>
+      <c r="T52">
+        <v>5.15</v>
+      </c>
+      <c r="U52">
+        <v>5.15</v>
+      </c>
+      <c r="V52">
+        <v>5.15</v>
+      </c>
+      <c r="W52">
+        <v>5.15</v>
+      </c>
+      <c r="X52">
+        <v>5.15</v>
+      </c>
+      <c r="Y52">
+        <v>5.15</v>
+      </c>
+      <c r="Z52">
+        <v>5.15</v>
       </c>
     </row>
   </sheetData>

--- a/election_predictor/minwages.xlsx
+++ b/election_predictor/minwages.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26122"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14680" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14700" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="fed" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="127">
   <si>
     <t>Federal (FLSA)</t>
   </si>
@@ -456,7 +456,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="27">
+  <cellStyleXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -484,13 +484,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="40" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="40" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="27">
+  <cellStyles count="35">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -504,6 +513,10 @@
     <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -517,6 +530,10 @@
     <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -848,8 +865,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="AB24" sqref="AB24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1066,35 +1083,35 @@
       <c r="P3" s="2">
         <v>5.15</v>
       </c>
-      <c r="Q3" t="s">
-        <v>2</v>
-      </c>
-      <c r="R3" t="s">
-        <v>2</v>
-      </c>
-      <c r="S3" t="s">
-        <v>2</v>
-      </c>
-      <c r="T3" t="s">
-        <v>2</v>
-      </c>
-      <c r="U3" t="s">
-        <v>2</v>
-      </c>
-      <c r="V3" t="s">
-        <v>2</v>
-      </c>
-      <c r="W3" t="s">
-        <v>2</v>
-      </c>
-      <c r="X3" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>2</v>
+      <c r="Q3" s="2">
+        <v>5.15</v>
+      </c>
+      <c r="R3" s="2">
+        <v>5.15</v>
+      </c>
+      <c r="S3" s="2">
+        <v>5.15</v>
+      </c>
+      <c r="T3">
+        <v>5.85</v>
+      </c>
+      <c r="U3">
+        <v>6.55</v>
+      </c>
+      <c r="V3">
+        <v>7.25</v>
+      </c>
+      <c r="W3" s="3">
+        <v>7.25</v>
+      </c>
+      <c r="X3" s="3">
+        <v>7.25</v>
+      </c>
+      <c r="Y3" s="3">
+        <v>7.25</v>
+      </c>
+      <c r="Z3" s="3">
+        <v>7.25</v>
       </c>
     </row>
     <row r="4" spans="1:26">
@@ -1226,11 +1243,11 @@
       <c r="P5" s="2">
         <v>5.15</v>
       </c>
-      <c r="Q5" t="s">
-        <v>2</v>
-      </c>
-      <c r="R5" t="s">
-        <v>2</v>
+      <c r="Q5" s="2">
+        <v>5.15</v>
+      </c>
+      <c r="R5" s="2">
+        <v>5.15</v>
       </c>
       <c r="S5">
         <v>6.75</v>
@@ -1306,35 +1323,35 @@
       <c r="P6" s="2">
         <v>5.15</v>
       </c>
-      <c r="Q6" t="s">
-        <v>64</v>
-      </c>
-      <c r="R6" t="s">
-        <v>71</v>
-      </c>
-      <c r="S6" t="s">
-        <v>86</v>
-      </c>
-      <c r="T6" t="s">
-        <v>87</v>
-      </c>
-      <c r="U6" t="s">
-        <v>87</v>
-      </c>
-      <c r="V6" t="s">
-        <v>86</v>
-      </c>
-      <c r="W6" t="s">
-        <v>86</v>
-      </c>
-      <c r="X6" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>86</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>86</v>
+      <c r="Q6" s="2">
+        <v>5.15</v>
+      </c>
+      <c r="R6" s="2">
+        <v>5.15</v>
+      </c>
+      <c r="S6">
+        <v>6.25</v>
+      </c>
+      <c r="T6">
+        <v>6.25</v>
+      </c>
+      <c r="U6">
+        <v>6.25</v>
+      </c>
+      <c r="V6">
+        <v>6.25</v>
+      </c>
+      <c r="W6">
+        <v>6.25</v>
+      </c>
+      <c r="X6">
+        <v>6.25</v>
+      </c>
+      <c r="Y6">
+        <v>6.25</v>
+      </c>
+      <c r="Z6">
+        <v>6.25</v>
       </c>
     </row>
     <row r="7" spans="1:26">
@@ -1706,8 +1723,8 @@
       <c r="P11" s="2">
         <v>5.15</v>
       </c>
-      <c r="Q11" t="s">
-        <v>2</v>
+      <c r="Q11" s="2">
+        <v>5.15</v>
       </c>
       <c r="R11">
         <v>6.4</v>
@@ -1786,35 +1803,35 @@
       <c r="P12" s="2">
         <v>5.15</v>
       </c>
-      <c r="Q12" t="s">
-        <v>72</v>
-      </c>
-      <c r="R12" t="s">
-        <v>72</v>
-      </c>
-      <c r="S12" t="s">
-        <v>72</v>
-      </c>
-      <c r="T12" t="s">
-        <v>72</v>
-      </c>
-      <c r="U12" t="s">
-        <v>72</v>
-      </c>
-      <c r="V12" t="s">
-        <v>72</v>
-      </c>
-      <c r="W12" t="s">
-        <v>72</v>
-      </c>
-      <c r="X12" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z12" t="s">
-        <v>72</v>
+      <c r="Q12" s="2">
+        <v>5.15</v>
+      </c>
+      <c r="R12" s="2">
+        <v>5.15</v>
+      </c>
+      <c r="S12">
+        <v>5.15</v>
+      </c>
+      <c r="T12">
+        <v>5.15</v>
+      </c>
+      <c r="U12">
+        <v>5.15</v>
+      </c>
+      <c r="V12">
+        <v>5.15</v>
+      </c>
+      <c r="W12">
+        <v>5.15</v>
+      </c>
+      <c r="X12">
+        <v>5.15</v>
+      </c>
+      <c r="Y12">
+        <v>5.15</v>
+      </c>
+      <c r="Z12">
+        <v>5.15</v>
       </c>
     </row>
     <row r="13" spans="1:26">
@@ -2026,35 +2043,35 @@
       <c r="P15">
         <v>5.5</v>
       </c>
-      <c r="Q15" t="s">
-        <v>74</v>
-      </c>
-      <c r="R15" t="s">
-        <v>74</v>
-      </c>
-      <c r="S15" t="s">
-        <v>74</v>
-      </c>
-      <c r="T15" t="s">
-        <v>88</v>
-      </c>
-      <c r="U15" t="s">
-        <v>89</v>
-      </c>
-      <c r="V15" t="s">
-        <v>90</v>
-      </c>
-      <c r="W15" t="s">
-        <v>91</v>
-      </c>
-      <c r="X15" t="s">
-        <v>91</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>91</v>
-      </c>
-      <c r="Z15" t="s">
-        <v>91</v>
+      <c r="Q15">
+        <v>6.5</v>
+      </c>
+      <c r="R15">
+        <v>6.5</v>
+      </c>
+      <c r="S15">
+        <v>6.5</v>
+      </c>
+      <c r="T15">
+        <v>7.5</v>
+      </c>
+      <c r="U15">
+        <v>7.75</v>
+      </c>
+      <c r="V15">
+        <v>8</v>
+      </c>
+      <c r="W15">
+        <v>8.25</v>
+      </c>
+      <c r="X15">
+        <v>8.25</v>
+      </c>
+      <c r="Y15">
+        <v>8.25</v>
+      </c>
+      <c r="Z15">
+        <v>8.25</v>
       </c>
     </row>
     <row r="16" spans="1:26">
@@ -2106,35 +2123,35 @@
       <c r="P16" s="2">
         <v>5.15</v>
       </c>
-      <c r="Q16" t="s">
-        <v>29</v>
-      </c>
-      <c r="R16" t="s">
-        <v>29</v>
-      </c>
-      <c r="S16" t="s">
-        <v>29</v>
-      </c>
-      <c r="T16" t="s">
-        <v>92</v>
-      </c>
-      <c r="U16" t="s">
-        <v>93</v>
-      </c>
-      <c r="V16" t="s">
-        <v>94</v>
-      </c>
-      <c r="W16" t="s">
-        <v>94</v>
-      </c>
-      <c r="X16" t="s">
-        <v>94</v>
-      </c>
-      <c r="Y16" t="s">
-        <v>94</v>
-      </c>
-      <c r="Z16" t="s">
-        <v>94</v>
+      <c r="Q16" s="2">
+        <v>5.15</v>
+      </c>
+      <c r="R16" s="2">
+        <v>5.15</v>
+      </c>
+      <c r="S16" s="2">
+        <v>5.15</v>
+      </c>
+      <c r="T16" s="3">
+        <v>5.85</v>
+      </c>
+      <c r="U16" s="3">
+        <v>6.55</v>
+      </c>
+      <c r="V16" s="3">
+        <v>7.25</v>
+      </c>
+      <c r="W16">
+        <v>7.25</v>
+      </c>
+      <c r="X16">
+        <v>7.25</v>
+      </c>
+      <c r="Y16">
+        <v>7.25</v>
+      </c>
+      <c r="Z16">
+        <v>7.25</v>
       </c>
     </row>
     <row r="17" spans="1:26">
@@ -2426,35 +2443,35 @@
       <c r="P20" s="2">
         <v>5.15</v>
       </c>
-      <c r="Q20" t="s">
-        <v>2</v>
-      </c>
-      <c r="R20" t="s">
-        <v>2</v>
-      </c>
-      <c r="S20" t="s">
-        <v>2</v>
-      </c>
-      <c r="T20" t="s">
-        <v>2</v>
-      </c>
-      <c r="U20" t="s">
-        <v>2</v>
-      </c>
-      <c r="V20" t="s">
-        <v>2</v>
-      </c>
-      <c r="W20" t="s">
-        <v>2</v>
-      </c>
-      <c r="X20" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y20" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z20" t="s">
-        <v>2</v>
+      <c r="Q20" s="2">
+        <v>5.15</v>
+      </c>
+      <c r="R20" s="2">
+        <v>5.15</v>
+      </c>
+      <c r="S20" s="2">
+        <v>5.15</v>
+      </c>
+      <c r="T20" s="3">
+        <v>5.85</v>
+      </c>
+      <c r="U20" s="3">
+        <v>6.55</v>
+      </c>
+      <c r="V20" s="3">
+        <v>7.25</v>
+      </c>
+      <c r="W20" s="3">
+        <v>7.25</v>
+      </c>
+      <c r="X20" s="3">
+        <v>7.25</v>
+      </c>
+      <c r="Y20" s="3">
+        <v>7.25</v>
+      </c>
+      <c r="Z20" s="3">
+        <v>7.25</v>
       </c>
     </row>
     <row r="21" spans="1:26">
@@ -2746,35 +2763,35 @@
       <c r="P24" s="2">
         <v>5.15</v>
       </c>
-      <c r="Q24" t="s">
-        <v>29</v>
-      </c>
-      <c r="R24" t="s">
-        <v>29</v>
-      </c>
-      <c r="S24" t="s">
-        <v>95</v>
-      </c>
-      <c r="T24" t="s">
-        <v>96</v>
-      </c>
-      <c r="U24" t="s">
-        <v>97</v>
-      </c>
-      <c r="V24" t="s">
-        <v>97</v>
-      </c>
-      <c r="W24" t="s">
-        <v>97</v>
-      </c>
-      <c r="X24" t="s">
-        <v>97</v>
-      </c>
-      <c r="Y24" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z24" t="s">
-        <v>119</v>
+      <c r="Q24" s="2">
+        <v>5.15</v>
+      </c>
+      <c r="R24" s="2">
+        <v>5.15</v>
+      </c>
+      <c r="S24">
+        <v>6.95</v>
+      </c>
+      <c r="T24">
+        <v>7.15</v>
+      </c>
+      <c r="U24">
+        <v>7.4</v>
+      </c>
+      <c r="V24">
+        <v>7.4</v>
+      </c>
+      <c r="W24">
+        <v>7.4</v>
+      </c>
+      <c r="X24">
+        <v>7.4</v>
+      </c>
+      <c r="Y24">
+        <v>7.4</v>
+      </c>
+      <c r="Z24">
+        <v>8.15</v>
       </c>
     </row>
     <row r="25" spans="1:26">
@@ -2826,35 +2843,35 @@
       <c r="P25">
         <v>4.9000000000000004</v>
       </c>
-      <c r="Q25" t="s">
-        <v>75</v>
-      </c>
-      <c r="R25" t="s">
-        <v>76</v>
-      </c>
-      <c r="S25" t="s">
-        <v>98</v>
-      </c>
-      <c r="T25" t="s">
-        <v>98</v>
-      </c>
-      <c r="U25" t="s">
-        <v>98</v>
-      </c>
-      <c r="V25" t="s">
-        <v>98</v>
-      </c>
-      <c r="W25" t="s">
-        <v>98</v>
-      </c>
-      <c r="X25" t="s">
-        <v>98</v>
-      </c>
-      <c r="Y25" t="s">
-        <v>98</v>
-      </c>
-      <c r="Z25" t="s">
-        <v>122</v>
+      <c r="Q25">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="R25">
+        <v>5.25</v>
+      </c>
+      <c r="S25">
+        <v>5.25</v>
+      </c>
+      <c r="T25">
+        <v>5.25</v>
+      </c>
+      <c r="U25">
+        <v>5.25</v>
+      </c>
+      <c r="V25">
+        <v>5.25</v>
+      </c>
+      <c r="W25">
+        <v>5.25</v>
+      </c>
+      <c r="X25">
+        <v>5.25</v>
+      </c>
+      <c r="Y25">
+        <v>5.25</v>
+      </c>
+      <c r="Z25">
+        <v>6.5</v>
       </c>
     </row>
     <row r="26" spans="1:26">
@@ -2906,35 +2923,35 @@
       <c r="P26" s="2">
         <v>5.15</v>
       </c>
-      <c r="Q26" t="s">
-        <v>2</v>
-      </c>
-      <c r="R26" t="s">
-        <v>2</v>
-      </c>
-      <c r="S26" t="s">
-        <v>2</v>
-      </c>
-      <c r="T26" t="s">
-        <v>2</v>
-      </c>
-      <c r="U26" t="s">
-        <v>2</v>
-      </c>
-      <c r="V26" t="s">
-        <v>2</v>
-      </c>
-      <c r="W26" t="s">
-        <v>2</v>
-      </c>
-      <c r="X26" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y26" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z26" t="s">
-        <v>2</v>
+      <c r="Q26" s="2">
+        <v>5.15</v>
+      </c>
+      <c r="R26" s="2">
+        <v>5.15</v>
+      </c>
+      <c r="S26" s="2">
+        <v>5.15</v>
+      </c>
+      <c r="T26" s="3">
+        <v>5.85</v>
+      </c>
+      <c r="U26" s="3">
+        <v>6.55</v>
+      </c>
+      <c r="V26" s="3">
+        <v>7.25</v>
+      </c>
+      <c r="W26" s="3">
+        <v>7.25</v>
+      </c>
+      <c r="X26" s="3">
+        <v>7.25</v>
+      </c>
+      <c r="Y26" s="3">
+        <v>7.25</v>
+      </c>
+      <c r="Z26" s="3">
+        <v>7.25</v>
       </c>
     </row>
     <row r="27" spans="1:26">
@@ -3066,35 +3083,35 @@
       <c r="P28">
         <v>4</v>
       </c>
-      <c r="Q28" t="s">
-        <v>77</v>
-      </c>
-      <c r="R28" t="s">
-        <v>78</v>
-      </c>
-      <c r="S28" t="s">
-        <v>99</v>
-      </c>
-      <c r="T28" t="s">
-        <v>100</v>
-      </c>
-      <c r="U28" t="s">
-        <v>101</v>
-      </c>
-      <c r="V28" t="s">
-        <v>102</v>
-      </c>
-      <c r="W28" t="s">
-        <v>103</v>
-      </c>
-      <c r="X28" t="s">
-        <v>104</v>
-      </c>
-      <c r="Y28" t="s">
-        <v>105</v>
-      </c>
-      <c r="Z28" t="s">
-        <v>123</v>
+      <c r="Q28">
+        <v>4</v>
+      </c>
+      <c r="R28">
+        <v>4</v>
+      </c>
+      <c r="S28">
+        <v>4</v>
+      </c>
+      <c r="T28">
+        <v>4</v>
+      </c>
+      <c r="U28">
+        <v>4</v>
+      </c>
+      <c r="V28">
+        <v>4</v>
+      </c>
+      <c r="W28">
+        <v>4</v>
+      </c>
+      <c r="X28">
+        <v>4</v>
+      </c>
+      <c r="Y28">
+        <v>4</v>
+      </c>
+      <c r="Z28">
+        <v>7.9</v>
       </c>
     </row>
     <row r="29" spans="1:26">
@@ -3146,35 +3163,35 @@
       <c r="P29" s="2">
         <v>5.15</v>
       </c>
-      <c r="Q29" t="s">
-        <v>64</v>
-      </c>
-      <c r="R29" t="s">
-        <v>64</v>
-      </c>
-      <c r="S29" t="s">
-        <v>64</v>
-      </c>
-      <c r="T29" t="s">
-        <v>106</v>
-      </c>
-      <c r="U29" t="s">
-        <v>107</v>
-      </c>
-      <c r="V29" t="s">
-        <v>108</v>
-      </c>
-      <c r="W29" t="s">
-        <v>108</v>
-      </c>
-      <c r="X29" t="s">
-        <v>108</v>
-      </c>
-      <c r="Y29" t="s">
-        <v>108</v>
-      </c>
-      <c r="Z29" t="s">
-        <v>108</v>
+      <c r="Q29" s="2">
+        <v>5.15</v>
+      </c>
+      <c r="R29" s="2">
+        <v>5.15</v>
+      </c>
+      <c r="S29" s="2">
+        <v>5.15</v>
+      </c>
+      <c r="T29" s="3">
+        <v>5.85</v>
+      </c>
+      <c r="U29" s="3">
+        <v>6.55</v>
+      </c>
+      <c r="V29">
+        <v>7.25</v>
+      </c>
+      <c r="W29" s="3">
+        <v>7.25</v>
+      </c>
+      <c r="X29" s="3">
+        <v>7.25</v>
+      </c>
+      <c r="Y29" s="3">
+        <v>7.25</v>
+      </c>
+      <c r="Z29" s="3">
+        <v>7.25</v>
       </c>
     </row>
     <row r="30" spans="1:26">
@@ -3238,23 +3255,23 @@
       <c r="T30">
         <v>6.33</v>
       </c>
-      <c r="U30" t="s">
-        <v>109</v>
-      </c>
-      <c r="V30" t="s">
-        <v>110</v>
-      </c>
-      <c r="W30" t="s">
-        <v>111</v>
-      </c>
-      <c r="X30" t="s">
-        <v>111</v>
-      </c>
-      <c r="Y30" t="s">
-        <v>111</v>
-      </c>
-      <c r="Z30" t="s">
-        <v>111</v>
+      <c r="U30" s="3">
+        <v>6.55</v>
+      </c>
+      <c r="V30" s="3">
+        <v>6.55</v>
+      </c>
+      <c r="W30" s="3">
+        <v>7.25</v>
+      </c>
+      <c r="X30" s="3">
+        <v>7.25</v>
+      </c>
+      <c r="Y30" s="3">
+        <v>7.25</v>
+      </c>
+      <c r="Z30" s="3">
+        <v>7.25</v>
       </c>
     </row>
     <row r="31" spans="1:26">
@@ -3786,11 +3803,11 @@
       <c r="P37">
         <v>2.8</v>
       </c>
-      <c r="Q37" t="s">
-        <v>79</v>
-      </c>
-      <c r="R37" t="s">
-        <v>79</v>
+      <c r="Q37">
+        <v>2.8</v>
+      </c>
+      <c r="R37">
+        <v>2.8</v>
       </c>
       <c r="S37">
         <v>6.85</v>
@@ -3813,8 +3830,8 @@
       <c r="Y37">
         <v>7.85</v>
       </c>
-      <c r="Z37" t="s">
-        <v>124</v>
+      <c r="Z37">
+        <v>7.25</v>
       </c>
     </row>
     <row r="38" spans="1:26">
@@ -3866,35 +3883,35 @@
       <c r="P38">
         <v>2</v>
       </c>
-      <c r="Q38" t="s">
-        <v>80</v>
-      </c>
-      <c r="R38" t="s">
-        <v>81</v>
-      </c>
-      <c r="S38" t="s">
-        <v>112</v>
-      </c>
-      <c r="T38" t="s">
-        <v>113</v>
-      </c>
-      <c r="U38" t="s">
-        <v>114</v>
-      </c>
-      <c r="V38" t="s">
-        <v>115</v>
-      </c>
-      <c r="W38" t="s">
-        <v>115</v>
-      </c>
-      <c r="X38" t="s">
-        <v>115</v>
-      </c>
-      <c r="Y38" t="s">
-        <v>115</v>
-      </c>
-      <c r="Z38" t="s">
-        <v>115</v>
+      <c r="Q38">
+        <v>2</v>
+      </c>
+      <c r="R38">
+        <v>2</v>
+      </c>
+      <c r="S38">
+        <v>2</v>
+      </c>
+      <c r="T38">
+        <v>2</v>
+      </c>
+      <c r="U38">
+        <v>2</v>
+      </c>
+      <c r="V38">
+        <v>2</v>
+      </c>
+      <c r="W38">
+        <v>2</v>
+      </c>
+      <c r="X38">
+        <v>2</v>
+      </c>
+      <c r="Y38">
+        <v>2</v>
+      </c>
+      <c r="Z38">
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:26">
@@ -4186,35 +4203,35 @@
       <c r="P42" s="2">
         <v>5.15</v>
       </c>
-      <c r="Q42" t="s">
-        <v>2</v>
-      </c>
-      <c r="R42" t="s">
-        <v>2</v>
-      </c>
-      <c r="S42" t="s">
-        <v>2</v>
-      </c>
-      <c r="T42" t="s">
-        <v>2</v>
-      </c>
-      <c r="U42" t="s">
-        <v>2</v>
-      </c>
-      <c r="V42" t="s">
-        <v>2</v>
-      </c>
-      <c r="W42" t="s">
-        <v>2</v>
-      </c>
-      <c r="X42" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y42" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z42" t="s">
-        <v>2</v>
+      <c r="Q42" s="2">
+        <v>5.15</v>
+      </c>
+      <c r="R42" s="2">
+        <v>5.15</v>
+      </c>
+      <c r="S42" s="2">
+        <v>5.15</v>
+      </c>
+      <c r="T42" s="3">
+        <v>5.85</v>
+      </c>
+      <c r="U42" s="3">
+        <v>6.55</v>
+      </c>
+      <c r="V42" s="3">
+        <v>7.25</v>
+      </c>
+      <c r="W42" s="3">
+        <v>7.25</v>
+      </c>
+      <c r="X42" s="3">
+        <v>7.25</v>
+      </c>
+      <c r="Y42" s="3">
+        <v>7.25</v>
+      </c>
+      <c r="Z42" s="3">
+        <v>7.25</v>
       </c>
     </row>
     <row r="43" spans="1:26">
@@ -4346,35 +4363,35 @@
       <c r="P44" s="2">
         <v>5.15</v>
       </c>
-      <c r="Q44" t="s">
-        <v>2</v>
-      </c>
-      <c r="R44" t="s">
-        <v>2</v>
-      </c>
-      <c r="S44" t="s">
-        <v>2</v>
-      </c>
-      <c r="T44" t="s">
-        <v>2</v>
-      </c>
-      <c r="U44" t="s">
-        <v>2</v>
-      </c>
-      <c r="V44" t="s">
-        <v>2</v>
-      </c>
-      <c r="W44" t="s">
-        <v>2</v>
-      </c>
-      <c r="X44" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y44" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z44" t="s">
-        <v>2</v>
+      <c r="Q44" s="2">
+        <v>5.15</v>
+      </c>
+      <c r="R44" s="2">
+        <v>5.15</v>
+      </c>
+      <c r="S44" s="2">
+        <v>5.15</v>
+      </c>
+      <c r="T44" s="3">
+        <v>5.85</v>
+      </c>
+      <c r="U44" s="3">
+        <v>6.55</v>
+      </c>
+      <c r="V44" s="3">
+        <v>7.25</v>
+      </c>
+      <c r="W44" s="3">
+        <v>7.25</v>
+      </c>
+      <c r="X44" s="3">
+        <v>7.25</v>
+      </c>
+      <c r="Y44" s="3">
+        <v>7.25</v>
+      </c>
+      <c r="Z44" s="3">
+        <v>7.25</v>
       </c>
     </row>
     <row r="45" spans="1:26">
@@ -4586,35 +4603,35 @@
       <c r="P47">
         <v>6.75</v>
       </c>
-      <c r="Q47" t="s">
-        <v>85</v>
+      <c r="Q47">
+        <v>7</v>
       </c>
       <c r="R47">
         <v>7.25</v>
       </c>
-      <c r="S47" t="s">
-        <v>116</v>
-      </c>
-      <c r="T47" t="s">
-        <v>117</v>
-      </c>
-      <c r="U47" t="s">
-        <v>118</v>
-      </c>
-      <c r="V47" t="s">
-        <v>118</v>
-      </c>
-      <c r="W47" t="s">
-        <v>119</v>
-      </c>
-      <c r="X47" t="s">
-        <v>120</v>
-      </c>
-      <c r="Y47" t="s">
-        <v>121</v>
-      </c>
-      <c r="Z47" t="s">
-        <v>125</v>
+      <c r="S47">
+        <v>7.53</v>
+      </c>
+      <c r="T47">
+        <v>7.68</v>
+      </c>
+      <c r="U47">
+        <v>8.06</v>
+      </c>
+      <c r="V47">
+        <v>8.06</v>
+      </c>
+      <c r="W47">
+        <v>8.15</v>
+      </c>
+      <c r="X47">
+        <v>8.4600000000000009</v>
+      </c>
+      <c r="Y47">
+        <v>8.6</v>
+      </c>
+      <c r="Z47">
+        <v>8.73</v>
       </c>
     </row>
     <row r="48" spans="1:26">
@@ -4666,35 +4683,35 @@
       <c r="P48" s="2">
         <v>5.15</v>
       </c>
-      <c r="Q48" t="s">
-        <v>64</v>
-      </c>
-      <c r="R48" t="s">
-        <v>64</v>
-      </c>
-      <c r="S48" t="s">
-        <v>64</v>
-      </c>
-      <c r="T48" t="s">
-        <v>106</v>
-      </c>
-      <c r="U48" t="s">
-        <v>107</v>
-      </c>
-      <c r="V48" t="s">
-        <v>108</v>
-      </c>
-      <c r="W48" t="s">
-        <v>108</v>
-      </c>
-      <c r="X48" t="s">
-        <v>108</v>
-      </c>
-      <c r="Y48" t="s">
-        <v>108</v>
-      </c>
-      <c r="Z48" t="s">
-        <v>108</v>
+      <c r="Q48" s="2">
+        <v>5.15</v>
+      </c>
+      <c r="R48" s="2">
+        <v>5.15</v>
+      </c>
+      <c r="S48">
+        <v>5.15</v>
+      </c>
+      <c r="T48" s="3">
+        <v>5.85</v>
+      </c>
+      <c r="U48" s="3">
+        <v>6.55</v>
+      </c>
+      <c r="V48" s="3">
+        <v>7.25</v>
+      </c>
+      <c r="W48" s="3">
+        <v>7.25</v>
+      </c>
+      <c r="X48" s="3">
+        <v>7.25</v>
+      </c>
+      <c r="Y48" s="3">
+        <v>7.25</v>
+      </c>
+      <c r="Z48" s="3">
+        <v>7.25</v>
       </c>
     </row>
     <row r="49" spans="1:26">
@@ -4826,11 +4843,11 @@
       <c r="P50" s="2">
         <v>5.15</v>
       </c>
-      <c r="Q50" t="s">
-        <v>72</v>
-      </c>
-      <c r="R50" t="s">
-        <v>72</v>
+      <c r="Q50" s="2">
+        <v>5.15</v>
+      </c>
+      <c r="R50" s="2">
+        <v>5.15</v>
       </c>
       <c r="S50">
         <v>5.85</v>

--- a/election_predictor/minwages.xlsx
+++ b/election_predictor/minwages.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26122"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="11620" yWindow="0" windowWidth="13640" windowHeight="14620" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="11620" yWindow="0" windowWidth="13640" windowHeight="14620" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="fed" sheetId="1" r:id="rId1"/>
@@ -638,7 +638,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -4662,8 +4662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Z28" sqref="Z28"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="U59" sqref="U59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/election_predictor/minwages.xlsx
+++ b/election_predictor/minwages.xlsx
@@ -639,7 +639,7 @@
   <dimension ref="A1:Z50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
